--- a/Results/low_correlation_stocks.xlsx
+++ b/Results/low_correlation_stocks.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinli/Desktop/FinalProject/Results/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE35F6C-3FAB-3242-B510-2A6535C1F91E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -37,11 +31,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,14 +101,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -161,7 +147,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -193,27 +179,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -245,24 +213,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -438,17 +388,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.1640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,7 +409,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="2">
         <v>43465</v>
       </c>
@@ -470,16 +417,16 @@
         <v>101.8396682739258</v>
       </c>
       <c r="C2">
-        <v>78.910003662109375</v>
+        <v>78.91000366210938</v>
       </c>
       <c r="D2">
-        <v>54.810001373291023</v>
+        <v>54.81000137329102</v>
       </c>
       <c r="E2">
-        <v>332.79998779296881</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>332.7999877929688</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
         <v>43467</v>
       </c>
@@ -487,84 +434,84 @@
         <v>103.6182861328125</v>
       </c>
       <c r="C3">
-        <v>80.370002746582031</v>
+        <v>80.37000274658203</v>
       </c>
       <c r="D3">
-        <v>55.310001373291023</v>
+        <v>55.31000137329102</v>
       </c>
       <c r="E3">
         <v>310.1199951171875</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>43468</v>
       </c>
       <c r="B4">
-        <v>101.63372802734381</v>
+        <v>101.6337280273438</v>
       </c>
       <c r="C4">
-        <v>78.709999084472656</v>
+        <v>78.70999908447266</v>
       </c>
       <c r="D4">
-        <v>53.950000762939453</v>
+        <v>53.95000076293945</v>
       </c>
       <c r="E4">
         <v>300.3599853515625</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>43469</v>
       </c>
       <c r="B5">
-        <v>103.73997497558589</v>
+        <v>103.7399749755859</v>
       </c>
       <c r="C5">
-        <v>84.419998168945312</v>
+        <v>84.41999816894531</v>
       </c>
       <c r="D5">
-        <v>56.569999694824219</v>
+        <v>56.56999969482422</v>
       </c>
       <c r="E5">
-        <v>317.69000244140619</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>317.6900024414062</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>43472</v>
       </c>
       <c r="B6">
-        <v>105.08798980712891</v>
+        <v>105.0879898071289</v>
       </c>
       <c r="C6">
-        <v>87.589996337890625</v>
+        <v>87.58999633789062</v>
       </c>
       <c r="D6">
-        <v>58.619998931884773</v>
+        <v>58.61999893188477</v>
       </c>
       <c r="E6">
-        <v>334.95999145507812</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>334.9599914550781</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>43473</v>
       </c>
       <c r="B7">
-        <v>104.62928771972661</v>
+        <v>104.6292877197266</v>
       </c>
       <c r="C7">
-        <v>89.019996643066406</v>
+        <v>89.01999664306641</v>
       </c>
       <c r="D7">
-        <v>58.740001678466797</v>
+        <v>58.7400016784668</v>
       </c>
       <c r="E7">
-        <v>335.35000610351562</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>335.3500061035156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>43474</v>
       </c>
@@ -572,16 +519,16 @@
         <v>106.033447265625</v>
       </c>
       <c r="C8">
-        <v>88.910003662109375</v>
+        <v>88.91000366210938</v>
       </c>
       <c r="D8">
-        <v>62.979999542236328</v>
+        <v>62.97999954223633</v>
       </c>
       <c r="E8">
-        <v>338.52999877929688</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>338.5299987792969</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>43475</v>
       </c>
@@ -589,16 +536,16 @@
         <v>106.2019500732422</v>
       </c>
       <c r="C9">
-        <v>91.010002136230469</v>
+        <v>91.01000213623047</v>
       </c>
       <c r="D9">
-        <v>61.990001678466797</v>
+        <v>61.9900016784668</v>
       </c>
       <c r="E9">
-        <v>344.97000122070312</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>344.9700012207031</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <v>43476</v>
       </c>
@@ -606,16 +553,16 @@
         <v>105.35009765625</v>
       </c>
       <c r="C10">
-        <v>90.699996948242188</v>
+        <v>90.69999694824219</v>
       </c>
       <c r="D10">
-        <v>60.689998626708977</v>
+        <v>60.68999862670898</v>
       </c>
       <c r="E10">
         <v>347.260009765625</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
         <v>43479</v>
       </c>
@@ -623,33 +570,33 @@
         <v>104.5824737548828</v>
       </c>
       <c r="C11">
-        <v>88.580001831054688</v>
+        <v>88.58000183105469</v>
       </c>
       <c r="D11">
-        <v>60.279998779296882</v>
+        <v>60.27999877929688</v>
       </c>
       <c r="E11">
-        <v>334.39999389648438</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>334.3999938964844</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="2">
         <v>43480</v>
       </c>
       <c r="B12">
-        <v>104.95693206787109</v>
+        <v>104.9569320678711</v>
       </c>
       <c r="C12">
-        <v>89.489997863769531</v>
+        <v>89.48999786376953</v>
       </c>
       <c r="D12">
-        <v>62.919998168945312</v>
+        <v>62.91999816894531</v>
       </c>
       <c r="E12">
-        <v>344.42999267578119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>344.4299926757812</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="2">
         <v>43481</v>
       </c>
@@ -657,33 +604,33 @@
         <v>104.2829284667969</v>
       </c>
       <c r="C13">
-        <v>89.919998168945312</v>
+        <v>89.91999816894531</v>
       </c>
       <c r="D13">
-        <v>63.830001831054688</v>
+        <v>63.83000183105469</v>
       </c>
       <c r="E13">
-        <v>346.04998779296881</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>346.0499877929688</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="2">
         <v>43482</v>
       </c>
       <c r="B14">
-        <v>104.80714416503911</v>
+        <v>104.8071441650391</v>
       </c>
       <c r="C14">
         <v>89.30999755859375</v>
       </c>
       <c r="D14">
-        <v>64.169998168945312</v>
+        <v>64.16999816894531</v>
       </c>
       <c r="E14">
-        <v>347.30999755859381</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>347.3099975585938</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="2">
         <v>43483</v>
       </c>
@@ -691,16 +638,16 @@
         <v>107.0631790161133</v>
       </c>
       <c r="C15">
-        <v>92.519996643066406</v>
+        <v>92.51999664306641</v>
       </c>
       <c r="D15">
-        <v>65.900001525878906</v>
+        <v>65.90000152587891</v>
       </c>
       <c r="E15">
         <v>302.260009765625</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="2">
         <v>43487</v>
       </c>
@@ -711,13 +658,13 @@
         <v>91.30999755859375</v>
       </c>
       <c r="D16">
-        <v>71.029998779296875</v>
+        <v>71.02999877929688</v>
       </c>
       <c r="E16">
-        <v>298.92001342773438</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>298.9200134277344</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="2">
         <v>43488</v>
       </c>
@@ -725,16 +672,16 @@
         <v>104.273567199707</v>
       </c>
       <c r="C17">
-        <v>89.129997253417969</v>
+        <v>89.12999725341797</v>
       </c>
       <c r="D17">
         <v>72.80999755859375</v>
       </c>
       <c r="E17">
-        <v>287.58999633789062</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>287.5899963378906</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="2">
         <v>43489</v>
       </c>
@@ -742,16 +689,16 @@
         <v>106.2581253051758</v>
       </c>
       <c r="C18">
-        <v>91.480003356933594</v>
+        <v>91.48000335693359</v>
       </c>
       <c r="D18">
-        <v>73.980003356933594</v>
+        <v>73.98000335693359</v>
       </c>
       <c r="E18">
         <v>291.510009765625</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="2">
         <v>43490</v>
       </c>
@@ -759,16 +706,16 @@
         <v>105.9866409301758</v>
       </c>
       <c r="C19">
-        <v>91.739997863769531</v>
+        <v>91.73999786376953</v>
       </c>
       <c r="D19">
-        <v>77.489997863769531</v>
+        <v>77.48999786376953</v>
       </c>
       <c r="E19">
-        <v>297.04000854492188</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>297.0400085449219</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="2">
         <v>43493</v>
       </c>
@@ -776,16 +723,16 @@
         <v>105.0037307739258</v>
       </c>
       <c r="C20">
-        <v>90.470001220703125</v>
+        <v>90.47000122070312</v>
       </c>
       <c r="D20">
-        <v>75.779998779296875</v>
+        <v>75.77999877929688</v>
       </c>
       <c r="E20">
         <v>296.3800048828125</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="2">
         <v>43494</v>
       </c>
@@ -793,16 +740,16 @@
         <v>104.6854553222656</v>
       </c>
       <c r="C21">
-        <v>87.239997863769531</v>
+        <v>87.23999786376953</v>
       </c>
       <c r="D21">
-        <v>75.089996337890625</v>
+        <v>75.08999633789062</v>
       </c>
       <c r="E21">
-        <v>297.45999145507812</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>297.4599914550781</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="2">
         <v>43495</v>
       </c>
@@ -810,16 +757,16 @@
         <v>105.7900772094727</v>
       </c>
       <c r="C22">
-        <v>89.230003356933594</v>
+        <v>89.23000335693359</v>
       </c>
       <c r="D22">
-        <v>75.580001831054688</v>
+        <v>75.58000183105469</v>
       </c>
       <c r="E22">
-        <v>308.76998901367188</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+        <v>308.7699890136719</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="2">
         <v>43496</v>
       </c>
@@ -827,50 +774,50 @@
         <v>107.3252792358398</v>
       </c>
       <c r="C23">
-        <v>92.239997863769531</v>
+        <v>92.23999786376953</v>
       </c>
       <c r="D23">
-        <v>77.040000915527344</v>
+        <v>77.04000091552734</v>
       </c>
       <c r="E23">
-        <v>307.01998901367188</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+        <v>307.0199890136719</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="2">
         <v>43497</v>
       </c>
       <c r="B24">
-        <v>110.80763244628911</v>
+        <v>110.8076324462891</v>
       </c>
       <c r="C24">
-        <v>91.220001220703125</v>
+        <v>91.22000122070312</v>
       </c>
       <c r="D24">
-        <v>75.699996948242188</v>
+        <v>75.69999694824219</v>
       </c>
       <c r="E24">
-        <v>312.20999145507812</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+        <v>312.2099914550781</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="2">
         <v>43500</v>
       </c>
       <c r="B25">
-        <v>112.09010314941411</v>
+        <v>112.0901031494141</v>
       </c>
       <c r="C25">
-        <v>88.430000305175781</v>
+        <v>88.43000030517578</v>
       </c>
       <c r="D25">
-        <v>76.790000915527344</v>
+        <v>76.79000091552734</v>
       </c>
       <c r="E25">
         <v>312.8900146484375</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" s="2">
         <v>43501</v>
       </c>
@@ -878,67 +825,67 @@
         <v>111.8467254638672</v>
       </c>
       <c r="C26">
-        <v>92.519996643066406</v>
+        <v>92.51999664306641</v>
       </c>
       <c r="D26">
-        <v>78.660003662109375</v>
+        <v>78.66000366210938</v>
       </c>
       <c r="E26">
-        <v>321.35000610351562</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+        <v>321.3500061035156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="2">
         <v>43502</v>
       </c>
       <c r="B27">
-        <v>111.28504943847661</v>
+        <v>111.2850494384766</v>
       </c>
       <c r="C27">
-        <v>80.209999084472656</v>
+        <v>80.20999908447266</v>
       </c>
       <c r="D27">
-        <v>78.629997253417969</v>
+        <v>78.62999725341797</v>
       </c>
       <c r="E27">
-        <v>317.22000122070312</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+        <v>317.2200012207031</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="2">
         <v>43503</v>
       </c>
       <c r="B28">
-        <v>110.67657470703119</v>
+        <v>110.6765747070312</v>
       </c>
       <c r="C28">
-        <v>84.099998474121094</v>
+        <v>84.09999847412109</v>
       </c>
       <c r="D28">
-        <v>76.819999694824219</v>
+        <v>76.81999969482422</v>
       </c>
       <c r="E28">
         <v>307.510009765625</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" s="2">
         <v>43504</v>
       </c>
       <c r="B29">
-        <v>110.06809997558589</v>
+        <v>110.0680999755859</v>
       </c>
       <c r="C29">
-        <v>97.599998474121094</v>
+        <v>97.59999847412109</v>
       </c>
       <c r="D29">
-        <v>77.599998474121094</v>
+        <v>77.59999847412109</v>
       </c>
       <c r="E29">
-        <v>305.79998779296881</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+        <v>305.7999877929688</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="2">
         <v>43507</v>
       </c>
@@ -946,16 +893,16 @@
         <v>109.4783477783203</v>
       </c>
       <c r="C30">
-        <v>97.239997863769531</v>
+        <v>97.23999786376953</v>
       </c>
       <c r="D30">
-        <v>79.010002136230469</v>
+        <v>79.01000213623047</v>
       </c>
       <c r="E30">
-        <v>312.83999633789062</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+        <v>312.8399963378906</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="2">
         <v>43508</v>
       </c>
@@ -969,10 +916,10 @@
         <v>77.44000244140625</v>
       </c>
       <c r="E31">
-        <v>311.80999755859381</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+        <v>311.8099975585938</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="2">
         <v>43509</v>
       </c>
@@ -983,13 +930,13 @@
         <v>102.25</v>
       </c>
       <c r="D32">
-        <v>78.739997863769531</v>
+        <v>78.73999786376953</v>
       </c>
       <c r="E32">
-        <v>308.17001342773438</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+        <v>308.1700134277344</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="2">
         <v>43510</v>
       </c>
@@ -1000,13 +947,13 @@
         <v>105.25</v>
       </c>
       <c r="D33">
-        <v>77.069999694824219</v>
+        <v>77.06999969482422</v>
       </c>
       <c r="E33">
-        <v>303.76998901367188</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+        <v>303.7699890136719</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="2">
         <v>43511</v>
       </c>
@@ -1017,13 +964,13 @@
         <v>106.8399963378906</v>
       </c>
       <c r="D34">
-        <v>77.529998779296875</v>
+        <v>77.52999877929688</v>
       </c>
       <c r="E34">
         <v>307.8800048828125</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="A35" s="2">
         <v>43515</v>
       </c>
@@ -1034,13 +981,13 @@
         <v>102.9599990844727</v>
       </c>
       <c r="D35">
-        <v>76.819999694824219</v>
+        <v>76.81999969482422</v>
       </c>
       <c r="E35">
         <v>305.6400146484375</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36" s="2">
         <v>43516</v>
       </c>
@@ -1048,33 +995,33 @@
         <v>113.7274475097656</v>
       </c>
       <c r="C36">
-        <v>98.629997253417969</v>
+        <v>98.62999725341797</v>
       </c>
       <c r="D36">
-        <v>79.279998779296875</v>
+        <v>79.27999877929688</v>
       </c>
       <c r="E36">
-        <v>302.55999755859381</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+        <v>302.5599975585938</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="2">
         <v>43517</v>
       </c>
       <c r="B37">
-        <v>112.64955139160161</v>
+        <v>112.6495513916016</v>
       </c>
       <c r="C37">
-        <v>96.860000610351562</v>
+        <v>96.86000061035156</v>
       </c>
       <c r="D37">
-        <v>78.379997253417969</v>
+        <v>78.37999725341797</v>
       </c>
       <c r="E37">
-        <v>291.23001098632812</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+        <v>291.2300109863281</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="2">
         <v>43518</v>
       </c>
@@ -1082,16 +1029,16 @@
         <v>112.8859329223633</v>
       </c>
       <c r="C38">
-        <v>95.919998168945312</v>
+        <v>95.91999816894531</v>
       </c>
       <c r="D38">
-        <v>80.610000610351562</v>
+        <v>80.61000061035156</v>
       </c>
       <c r="E38">
-        <v>294.70999145507812</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+        <v>294.7099914550781</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="2">
         <v>43521</v>
       </c>
@@ -1099,50 +1046,50 @@
         <v>113.1034240722656</v>
       </c>
       <c r="C39">
-        <v>95.860000610351562</v>
+        <v>95.86000061035156</v>
       </c>
       <c r="D39">
-        <v>82.379997253417969</v>
+        <v>82.37999725341797</v>
       </c>
       <c r="E39">
-        <v>298.76998901367188</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+        <v>298.7699890136719</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="2">
         <v>43522</v>
       </c>
       <c r="B40">
-        <v>113.40598297119141</v>
+        <v>113.4059829711914</v>
       </c>
       <c r="C40">
         <v>98.5</v>
       </c>
       <c r="D40">
-        <v>83.709999084472656</v>
+        <v>83.70999908447266</v>
       </c>
       <c r="E40">
         <v>297.8599853515625</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5">
       <c r="A41" s="2">
         <v>43523</v>
       </c>
       <c r="B41">
-        <v>113.53835296630859</v>
+        <v>113.5383529663086</v>
       </c>
       <c r="C41">
-        <v>97.839996337890625</v>
+        <v>97.83999633789062</v>
       </c>
       <c r="D41">
-        <v>81.629997253417969</v>
+        <v>81.62999725341797</v>
       </c>
       <c r="E41">
         <v>314.739990234375</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5">
       <c r="A42" s="2">
         <v>43524</v>
       </c>
@@ -1150,7 +1097,7 @@
         <v>113.0655899047852</v>
       </c>
       <c r="C42">
-        <v>95.779998779296875</v>
+        <v>95.77999877929688</v>
       </c>
       <c r="D42">
         <v>82.05999755859375</v>
@@ -1159,7 +1106,7 @@
         <v>319.8800048828125</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5">
       <c r="A43" s="2">
         <v>43525</v>
       </c>
@@ -1167,16 +1114,16 @@
         <v>115.3821105957031</v>
       </c>
       <c r="C43">
-        <v>97.410003662109375</v>
+        <v>97.41000366210938</v>
       </c>
       <c r="D43">
-        <v>82.769996643066406</v>
+        <v>82.76999664306641</v>
       </c>
       <c r="E43">
-        <v>294.79000854492188</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+        <v>294.7900085449219</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="2">
         <v>43528</v>
       </c>
@@ -1184,67 +1131,67 @@
         <v>115.4672164916992</v>
       </c>
       <c r="C44">
-        <v>97.290000915527344</v>
+        <v>97.29000091552734</v>
       </c>
       <c r="D44">
-        <v>82.830001831054688</v>
+        <v>82.83000183105469</v>
       </c>
       <c r="E44">
         <v>285.3599853515625</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5">
       <c r="A45" s="2">
         <v>43529</v>
       </c>
       <c r="B45">
-        <v>116.57347106933589</v>
+        <v>116.5734710693359</v>
       </c>
       <c r="C45">
-        <v>95.720001220703125</v>
+        <v>95.72000122070312</v>
       </c>
       <c r="D45">
         <v>83</v>
       </c>
       <c r="E45">
-        <v>276.54000854492188</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+        <v>276.5400085449219</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="2">
         <v>43530</v>
       </c>
       <c r="B46">
-        <v>116.80039978027339</v>
+        <v>116.8003997802734</v>
       </c>
       <c r="C46">
-        <v>94.769996643066406</v>
+        <v>94.76999664306641</v>
       </c>
       <c r="D46">
-        <v>82.199996948242188</v>
+        <v>82.19999694824219</v>
       </c>
       <c r="E46">
         <v>276.239990234375</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5">
       <c r="A47" s="2">
         <v>43531</v>
       </c>
       <c r="B47">
-        <v>115.29701995849609</v>
+        <v>115.2970199584961</v>
       </c>
       <c r="C47">
-        <v>99.360000610351562</v>
+        <v>99.36000061035156</v>
       </c>
       <c r="D47">
-        <v>79.449996948242188</v>
+        <v>79.44999694824219</v>
       </c>
       <c r="E47">
-        <v>276.58999633789062</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+        <v>276.5899963378906</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="2">
         <v>43532</v>
       </c>
@@ -1252,16 +1199,16 @@
         <v>114.9944534301758</v>
       </c>
       <c r="C48">
-        <v>98.360000610351562</v>
+        <v>98.36000061035156</v>
       </c>
       <c r="D48">
-        <v>79.019996643066406</v>
+        <v>79.01999664306641</v>
       </c>
       <c r="E48">
         <v>284.1400146484375</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5">
       <c r="A49" s="2">
         <v>43535</v>
       </c>
@@ -1269,33 +1216,33 @@
         <v>116.885498046875</v>
       </c>
       <c r="C49">
-        <v>99.040000915527344</v>
+        <v>99.04000091552734</v>
       </c>
       <c r="D49">
-        <v>81.430000305175781</v>
+        <v>81.43000030517578</v>
       </c>
       <c r="E49">
-        <v>290.92001342773438</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+        <v>290.9200134277344</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="2">
         <v>43536</v>
       </c>
       <c r="B50">
-        <v>117.15024566650391</v>
+        <v>117.1502456665039</v>
       </c>
       <c r="C50">
-        <v>98.589996337890625</v>
+        <v>98.58999633789062</v>
       </c>
       <c r="D50">
-        <v>78.550003051757812</v>
+        <v>78.55000305175781</v>
       </c>
       <c r="E50">
         <v>283.3599853515625</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5">
       <c r="A51" s="2">
         <v>43537</v>
       </c>
@@ -1309,27 +1256,27 @@
         <v>77.25</v>
       </c>
       <c r="E51">
-        <v>288.95999145507812</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+        <v>288.9599914550781</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="2">
         <v>43538</v>
       </c>
       <c r="B52">
-        <v>117.81211090087891</v>
+        <v>117.8121109008789</v>
       </c>
       <c r="C52">
-        <v>98.830001831054688</v>
+        <v>98.83000183105469</v>
       </c>
       <c r="D52">
-        <v>76.069999694824219</v>
+        <v>76.06999969482422</v>
       </c>
       <c r="E52">
-        <v>289.95999145507812</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+        <v>289.9599914550781</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="2">
         <v>43539</v>
       </c>
@@ -1337,16 +1284,16 @@
         <v>118.4834289550781</v>
       </c>
       <c r="C53">
-        <v>98.980003356933594</v>
+        <v>98.98000335693359</v>
       </c>
       <c r="D53">
-        <v>77.089996337890625</v>
+        <v>77.08999633789062</v>
       </c>
       <c r="E53">
-        <v>275.42999267578119</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+        <v>275.4299926757812</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="2">
         <v>43542</v>
       </c>
@@ -1354,16 +1301,16 @@
         <v>119.0223770141602</v>
       </c>
       <c r="C54">
-        <v>99.660003662109375</v>
+        <v>99.66000366210938</v>
       </c>
       <c r="D54">
-        <v>79.089996337890625</v>
+        <v>79.08999633789062</v>
       </c>
       <c r="E54">
         <v>269.489990234375</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5">
       <c r="A55" s="2">
         <v>43543</v>
       </c>
@@ -1371,16 +1318,16 @@
         <v>118.4550704956055</v>
       </c>
       <c r="C55">
-        <v>97.510002136230469</v>
+        <v>97.51000213623047</v>
       </c>
       <c r="D55">
-        <v>80.599998474121094</v>
+        <v>80.59999847412109</v>
       </c>
       <c r="E55">
-        <v>267.47000122070312</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+        <v>267.4700012207031</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" s="2">
         <v>43544</v>
       </c>
@@ -1388,16 +1335,16 @@
         <v>117.8972091674805</v>
       </c>
       <c r="C56">
-        <v>97.029998779296875</v>
+        <v>97.02999877929688</v>
       </c>
       <c r="D56">
-        <v>81.330001831054688</v>
+        <v>81.33000183105469</v>
       </c>
       <c r="E56">
-        <v>273.60000610351562</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+        <v>273.6000061035156</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" s="2">
         <v>43545</v>
       </c>
@@ -1408,13 +1355,13 @@
         <v>104.879997253418</v>
       </c>
       <c r="D57">
-        <v>81.370002746582031</v>
+        <v>81.37000274658203</v>
       </c>
       <c r="E57">
-        <v>274.01998901367188</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+        <v>274.0199890136719</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" s="2">
         <v>43546</v>
       </c>
@@ -1425,13 +1372,13 @@
         <v>102.3399963378906</v>
       </c>
       <c r="D58">
-        <v>79.510002136230469</v>
+        <v>79.51000213623047</v>
       </c>
       <c r="E58">
-        <v>264.52999877929688</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+        <v>264.5299987792969</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" s="2">
         <v>43549</v>
       </c>
@@ -1439,33 +1386,33 @@
         <v>116.1952667236328</v>
       </c>
       <c r="C59">
-        <v>101.73000335693359</v>
+        <v>101.7300033569336</v>
       </c>
       <c r="D59">
-        <v>82.779998779296875</v>
+        <v>82.77999877929688</v>
       </c>
       <c r="E59">
-        <v>260.42001342773438</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+        <v>260.4200134277344</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" s="2">
         <v>43550</v>
       </c>
       <c r="B60">
-        <v>117.36769866943359</v>
+        <v>117.3676986694336</v>
       </c>
       <c r="C60">
         <v>102.3199996948242</v>
       </c>
       <c r="D60">
-        <v>84.089996337890625</v>
+        <v>84.08999633789062</v>
       </c>
       <c r="E60">
-        <v>267.76998901367188</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+        <v>267.7699890136719</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" s="2">
         <v>43551</v>
       </c>
@@ -1476,13 +1423,13 @@
         <v>100.6699981689453</v>
       </c>
       <c r="D61">
-        <v>84.819999694824219</v>
+        <v>84.81999969482422</v>
       </c>
       <c r="E61">
-        <v>274.82998657226562</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+        <v>274.8299865722656</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" s="2">
         <v>43552</v>
       </c>
@@ -1493,13 +1440,13 @@
         <v>102.1999969482422</v>
       </c>
       <c r="D62">
-        <v>86.269996643066406</v>
+        <v>86.26999664306641</v>
       </c>
       <c r="E62">
         <v>278.6199951171875</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5">
       <c r="A63" s="2">
         <v>43553</v>
       </c>
@@ -1510,13 +1457,13 @@
         <v>101.629997253418</v>
       </c>
       <c r="D63">
-        <v>90.089996337890625</v>
+        <v>90.08999633789062</v>
       </c>
       <c r="E63">
         <v>279.8599853515625</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5">
       <c r="A64" s="2">
         <v>43556</v>
       </c>
@@ -1527,30 +1474,30 @@
         <v>102.6699981689453</v>
       </c>
       <c r="D64">
-        <v>89.040000915527344</v>
+        <v>89.04000091552734</v>
       </c>
       <c r="E64">
-        <v>289.17999267578119</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+        <v>289.1799926757812</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" s="2">
         <v>43557</v>
       </c>
       <c r="B65">
-        <v>118.12413024902339</v>
+        <v>118.1241302490234</v>
       </c>
       <c r="C65">
         <v>100.8399963378906</v>
       </c>
       <c r="D65">
-        <v>88.419998168945312</v>
+        <v>88.41999816894531</v>
       </c>
       <c r="E65">
         <v>285.8800048828125</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5">
       <c r="A66" s="2">
         <v>43558</v>
       </c>
@@ -1558,16 +1505,16 @@
         <v>117.1407928466797</v>
       </c>
       <c r="C66">
-        <v>100.15000152587891</v>
+        <v>100.1500015258789</v>
       </c>
       <c r="D66">
-        <v>88.430000305175781</v>
+        <v>88.43000030517578</v>
       </c>
       <c r="E66">
-        <v>291.80999755859381</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+        <v>291.8099975585938</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" s="2">
         <v>43559</v>
       </c>
@@ -1578,13 +1525,13 @@
         <v>97.94000244140625</v>
       </c>
       <c r="D67">
-        <v>88.790000915527344</v>
+        <v>88.79000091552734</v>
       </c>
       <c r="E67">
-        <v>267.77999877929688</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+        <v>267.7799987792969</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" s="2">
         <v>43560</v>
       </c>
@@ -1592,16 +1539,16 @@
         <v>119.5329666137695</v>
       </c>
       <c r="C68">
-        <v>99.430000305175781</v>
+        <v>99.43000030517578</v>
       </c>
       <c r="D68">
         <v>88.94000244140625</v>
       </c>
       <c r="E68">
-        <v>274.95999145507812</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+        <v>274.9599914550781</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" s="2">
         <v>43563</v>
       </c>
@@ -1609,33 +1556,33 @@
         <v>119.7788009643555</v>
       </c>
       <c r="C69">
-        <v>97.949996948242188</v>
+        <v>97.94999694824219</v>
       </c>
       <c r="D69">
         <v>89.25</v>
       </c>
       <c r="E69">
-        <v>273.20001220703119</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+        <v>273.2000122070312</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" s="2">
         <v>43564</v>
       </c>
       <c r="B70">
-        <v>118.70090484619141</v>
+        <v>118.7009048461914</v>
       </c>
       <c r="C70">
         <v>98.25</v>
       </c>
       <c r="D70">
-        <v>90.989997863769531</v>
+        <v>90.98999786376953</v>
       </c>
       <c r="E70">
-        <v>272.30999755859381</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+        <v>272.3099975585938</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" s="2">
         <v>43565</v>
       </c>
@@ -1643,16 +1590,16 @@
         <v>118.6536178588867</v>
       </c>
       <c r="C71">
-        <v>99.629997253417969</v>
+        <v>99.62999725341797</v>
       </c>
       <c r="D71">
-        <v>90.669998168945312</v>
+        <v>90.66999816894531</v>
       </c>
       <c r="E71">
-        <v>276.05999755859381</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+        <v>276.0599975585938</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" s="2">
         <v>43566</v>
       </c>
@@ -1663,13 +1610,13 @@
         <v>100.5800018310547</v>
       </c>
       <c r="D72">
-        <v>90.589996337890625</v>
+        <v>90.58999633789062</v>
       </c>
       <c r="E72">
-        <v>268.42001342773438</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+        <v>268.4200134277344</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" s="2">
         <v>43567</v>
       </c>
@@ -1680,30 +1627,30 @@
         <v>101.8300018310547</v>
       </c>
       <c r="D73">
-        <v>90.870002746582031</v>
+        <v>90.87000274658203</v>
       </c>
       <c r="E73">
-        <v>267.70001220703119</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+        <v>267.7000122070312</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" s="2">
         <v>43570</v>
       </c>
       <c r="B74">
-        <v>113.59507751464839</v>
+        <v>113.5950775146484</v>
       </c>
       <c r="C74">
-        <v>97.849998474121094</v>
+        <v>97.84999847412109</v>
       </c>
       <c r="D74">
-        <v>89.430000305175781</v>
+        <v>89.43000030517578</v>
       </c>
       <c r="E74">
         <v>266.3800048828125</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5">
       <c r="A75" s="2">
         <v>43571</v>
       </c>
@@ -1711,16 +1658,16 @@
         <v>114.568962097168</v>
       </c>
       <c r="C75">
-        <v>93.830001831054688</v>
+        <v>93.83000183105469</v>
       </c>
       <c r="D75">
-        <v>89.989997863769531</v>
+        <v>89.98999786376953</v>
       </c>
       <c r="E75">
         <v>273.3599853515625</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5">
       <c r="A76" s="2">
         <v>43572</v>
       </c>
@@ -1728,16 +1675,16 @@
         <v>113.7179870605469</v>
       </c>
       <c r="C76">
-        <v>91.949996948242188</v>
+        <v>91.94999694824219</v>
       </c>
       <c r="D76">
-        <v>89.730003356933594</v>
+        <v>89.73000335693359</v>
       </c>
       <c r="E76">
-        <v>271.23001098632812</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+        <v>271.2300109863281</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" s="2">
         <v>43573</v>
       </c>
@@ -1745,16 +1692,16 @@
         <v>113.3303298950195</v>
       </c>
       <c r="C77">
-        <v>93.139999389648438</v>
+        <v>93.13999938964844</v>
       </c>
       <c r="D77">
-        <v>89.989997863769531</v>
+        <v>89.98999786376953</v>
       </c>
       <c r="E77">
         <v>273.260009765625</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5">
       <c r="A78" s="2">
         <v>43577</v>
       </c>
@@ -1762,50 +1709,50 @@
         <v>115.2592010498047</v>
       </c>
       <c r="C78">
-        <v>92.519996643066406</v>
+        <v>92.51999664306641</v>
       </c>
       <c r="D78">
-        <v>90.419998168945312</v>
+        <v>90.41999816894531</v>
       </c>
       <c r="E78">
         <v>262.75</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5">
       <c r="A79" s="2">
         <v>43578</v>
       </c>
       <c r="B79">
-        <v>115.37265777587891</v>
+        <v>115.3726577758789</v>
       </c>
       <c r="C79">
-        <v>94.629997253417969</v>
+        <v>94.62999725341797</v>
       </c>
       <c r="D79">
-        <v>92.970001220703125</v>
+        <v>92.97000122070312</v>
       </c>
       <c r="E79">
-        <v>263.89999389648438</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+        <v>263.8999938964844</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80" s="2">
         <v>43579</v>
       </c>
       <c r="B80">
-        <v>111.83641052246089</v>
+        <v>111.8364105224609</v>
       </c>
       <c r="C80">
-        <v>94.150001525878906</v>
+        <v>94.15000152587891</v>
       </c>
       <c r="D80">
-        <v>90.339996337890625</v>
+        <v>90.33999633789062</v>
       </c>
       <c r="E80">
-        <v>258.66000366210938</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+        <v>258.6600036621094</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81" s="2">
         <v>43580</v>
       </c>
@@ -1813,7 +1760,7 @@
         <v>111.4771041870117</v>
       </c>
       <c r="C81">
-        <v>92.980003356933594</v>
+        <v>92.98000335693359</v>
       </c>
       <c r="D81">
         <v>92.25</v>
@@ -1822,24 +1769,24 @@
         <v>247.6300048828125</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5">
       <c r="A82" s="2">
         <v>43581</v>
       </c>
       <c r="B82">
-        <v>110.72068023681641</v>
+        <v>110.7206802368164</v>
       </c>
       <c r="C82">
-        <v>94.470001220703125</v>
+        <v>94.47000122070312</v>
       </c>
       <c r="D82">
-        <v>94.540000915527344</v>
+        <v>94.54000091552734</v>
       </c>
       <c r="E82">
-        <v>235.13999938964841</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+        <v>235.1399993896484</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83" s="2">
         <v>43584</v>
       </c>
@@ -1847,33 +1794,33 @@
         <v>111.3069152832031</v>
       </c>
       <c r="C83">
-        <v>94.730003356933594</v>
+        <v>94.73000335693359</v>
       </c>
       <c r="D83">
-        <v>94.260002136230469</v>
+        <v>94.26000213623047</v>
       </c>
       <c r="E83">
         <v>241.4700012207031</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5">
       <c r="A84" s="2">
         <v>43585</v>
       </c>
       <c r="B84">
-        <v>113.51943206787109</v>
+        <v>113.5194320678711</v>
       </c>
       <c r="C84">
-        <v>94.650001525878906</v>
+        <v>94.65000152587891</v>
       </c>
       <c r="D84">
-        <v>95.459999084472656</v>
+        <v>95.45999908447266</v>
       </c>
       <c r="E84">
-        <v>238.69000244140619</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+        <v>238.6900024414062</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85" s="2">
         <v>43586</v>
       </c>
@@ -1881,16 +1828,16 @@
         <v>111.3920059204102</v>
       </c>
       <c r="C85">
-        <v>94.860000610351562</v>
+        <v>94.86000061035156</v>
       </c>
       <c r="D85">
-        <v>93.849998474121094</v>
+        <v>93.84999847412109</v>
       </c>
       <c r="E85">
-        <v>234.00999450683591</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+        <v>234.0099945068359</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86" s="2">
         <v>43587</v>
       </c>
@@ -1898,16 +1845,16 @@
         <v>110.039909362793</v>
       </c>
       <c r="C86">
-        <v>94.400001525878906</v>
+        <v>94.40000152587891</v>
       </c>
       <c r="D86">
-        <v>95.739997863769531</v>
+        <v>95.73999786376953</v>
       </c>
       <c r="E86">
         <v>244.1000061035156</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5">
       <c r="A87" s="2">
         <v>43588</v>
       </c>
@@ -1924,7 +1871,7 @@
         <v>255.0299987792969</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5">
       <c r="A88" s="2">
         <v>43591</v>
       </c>
@@ -1932,7 +1879,7 @@
         <v>111.9498748779297</v>
       </c>
       <c r="C88">
-        <v>93.760002136230469</v>
+        <v>93.76000213623047</v>
       </c>
       <c r="D88">
         <v>92</v>
@@ -1941,7 +1888,7 @@
         <v>255.3399963378906</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5">
       <c r="A89" s="2">
         <v>43592</v>
       </c>
@@ -1949,33 +1896,33 @@
         <v>111.8269500732422</v>
       </c>
       <c r="C89">
-        <v>92.730003356933594</v>
+        <v>92.73000335693359</v>
       </c>
       <c r="D89">
-        <v>88.459999084472656</v>
+        <v>88.45999908447266</v>
       </c>
       <c r="E89">
-        <v>247.05999755859381</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+        <v>247.0599975585938</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90" s="2">
         <v>43593</v>
       </c>
       <c r="B90">
-        <v>111.09889984130859</v>
+        <v>111.0988998413086</v>
       </c>
       <c r="C90">
-        <v>93.879997253417969</v>
+        <v>93.87999725341797</v>
       </c>
       <c r="D90">
-        <v>90.849998474121094</v>
+        <v>90.84999847412109</v>
       </c>
       <c r="E90">
         <v>244.8399963378906</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5">
       <c r="A91" s="2">
         <v>43594</v>
       </c>
@@ -1983,33 +1930,33 @@
         <v>114.5878829956055</v>
       </c>
       <c r="C91">
-        <v>93.319999694824219</v>
+        <v>93.31999969482422</v>
       </c>
       <c r="D91">
-        <v>88.150001525878906</v>
+        <v>88.15000152587891</v>
       </c>
       <c r="E91">
-        <v>241.97999572753909</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+        <v>241.9799957275391</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92" s="2">
         <v>43595</v>
       </c>
       <c r="B92">
-        <v>115.34429931640619</v>
+        <v>115.3442993164062</v>
       </c>
       <c r="C92">
-        <v>93.879997253417969</v>
+        <v>93.87999725341797</v>
       </c>
       <c r="D92">
-        <v>88.010002136230469</v>
+        <v>88.01000213623047</v>
       </c>
       <c r="E92">
-        <v>239.52000427246091</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+        <v>239.5200042724609</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93" s="2">
         <v>43598</v>
       </c>
@@ -2017,33 +1964,33 @@
         <v>113.8787460327148</v>
       </c>
       <c r="C93">
-        <v>90.419998168945312</v>
+        <v>90.41999816894531</v>
       </c>
       <c r="D93">
-        <v>81.930000305175781</v>
+        <v>81.93000030517578</v>
       </c>
       <c r="E93">
-        <v>227.00999450683591</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+        <v>227.0099945068359</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94" s="2">
         <v>43599</v>
       </c>
       <c r="B94">
-        <v>115.01336669921881</v>
+        <v>115.0133666992188</v>
       </c>
       <c r="C94">
-        <v>94.569999694824219</v>
+        <v>94.56999969482422</v>
       </c>
       <c r="D94">
-        <v>84.029998779296875</v>
+        <v>84.02999877929688</v>
       </c>
       <c r="E94">
-        <v>232.30999755859381</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+        <v>232.3099975585938</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95" s="2">
         <v>43600</v>
       </c>
@@ -2051,84 +1998,84 @@
         <v>115.4861297607422</v>
       </c>
       <c r="C95">
-        <v>96.769996643066406</v>
+        <v>96.76999664306641</v>
       </c>
       <c r="D95">
-        <v>85.599998474121094</v>
+        <v>85.59999847412109</v>
       </c>
       <c r="E95">
-        <v>231.94999694824219</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+        <v>231.9499969482422</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
       <c r="A96" s="2">
         <v>43601</v>
       </c>
       <c r="B96">
-        <v>115.34291076660161</v>
+        <v>115.3429107666016</v>
       </c>
       <c r="C96">
         <v>99</v>
       </c>
       <c r="D96">
-        <v>85.870002746582031</v>
+        <v>85.87000274658203</v>
       </c>
       <c r="E96">
-        <v>228.33000183105469</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+        <v>228.3300018310547</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97" s="2">
         <v>43602</v>
       </c>
       <c r="B97">
-        <v>115.07554626464839</v>
+        <v>115.0755462646484</v>
       </c>
       <c r="C97">
-        <v>97.260002136230469</v>
+        <v>97.26000213623047</v>
       </c>
       <c r="D97">
-        <v>84.660003662109375</v>
+        <v>84.66000366210938</v>
       </c>
       <c r="E97">
         <v>211.0299987792969</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5">
       <c r="A98" s="2">
         <v>43605</v>
       </c>
       <c r="B98">
-        <v>115.38108825683589</v>
+        <v>115.3810882568359</v>
       </c>
       <c r="C98">
         <v>92.69000244140625</v>
       </c>
       <c r="D98">
-        <v>83.120002746582031</v>
+        <v>83.12000274658203</v>
       </c>
       <c r="E98">
-        <v>205.36000061035159</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+        <v>205.3600006103516</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
       <c r="A99" s="2">
         <v>43606</v>
       </c>
       <c r="B99">
-        <v>115.85850524902339</v>
+        <v>115.8585052490234</v>
       </c>
       <c r="C99">
-        <v>95.650001525878906</v>
+        <v>95.65000152587891</v>
       </c>
       <c r="D99">
-        <v>84.519996643066406</v>
+        <v>84.51999664306641</v>
       </c>
       <c r="E99">
-        <v>205.08000183105469</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+        <v>205.0800018310547</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100" s="2">
         <v>43607</v>
       </c>
@@ -2136,33 +2083,33 @@
         <v>115.123291015625</v>
       </c>
       <c r="C100">
-        <v>93.839996337890625</v>
+        <v>93.83999633789062</v>
       </c>
       <c r="D100">
-        <v>82.839996337890625</v>
+        <v>82.83999633789062</v>
       </c>
       <c r="E100">
-        <v>192.72999572753909</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+        <v>192.7299957275391</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
       <c r="A101" s="2">
         <v>43608</v>
       </c>
       <c r="B101">
-        <v>112.54527282714839</v>
+        <v>112.5452728271484</v>
       </c>
       <c r="C101">
-        <v>92.110000610351562</v>
+        <v>92.11000061035156</v>
       </c>
       <c r="D101">
-        <v>81.169998168945312</v>
+        <v>81.16999816894531</v>
       </c>
       <c r="E101">
-        <v>195.49000549316409</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+        <v>195.4900054931641</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
       <c r="A102" s="2">
         <v>43609</v>
       </c>
@@ -2170,16 +2117,16 @@
         <v>113.3473205566406</v>
       </c>
       <c r="C102">
-        <v>92.269996643066406</v>
+        <v>92.26999664306641</v>
       </c>
       <c r="D102">
-        <v>81.540000915527344</v>
+        <v>81.54000091552734</v>
       </c>
       <c r="E102">
         <v>190.6300048828125</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5">
       <c r="A103" s="2">
         <v>43613</v>
       </c>
@@ -2190,13 +2137,13 @@
         <v>93.5</v>
       </c>
       <c r="D103">
-        <v>82.769996643066406</v>
+        <v>82.76999664306641</v>
       </c>
       <c r="E103">
-        <v>188.69999694824219</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+        <v>188.6999969482422</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
       <c r="A104" s="2">
         <v>43614</v>
       </c>
@@ -2204,33 +2151,33 @@
         <v>111.4949493408203</v>
       </c>
       <c r="C104">
-        <v>92.550003051757812</v>
+        <v>92.55000305175781</v>
       </c>
       <c r="D104">
         <v>83.19000244140625</v>
       </c>
       <c r="E104">
-        <v>189.86000061035159</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+        <v>189.8600006103516</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
       <c r="A105" s="2">
         <v>43615</v>
       </c>
       <c r="B105">
-        <v>110.16774749755859</v>
+        <v>110.1677474975586</v>
       </c>
       <c r="C105">
-        <v>92.129997253417969</v>
+        <v>92.12999725341797</v>
       </c>
       <c r="D105">
-        <v>84.110000610351562</v>
+        <v>84.11000061035156</v>
       </c>
       <c r="E105">
         <v>188.2200012207031</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5">
       <c r="A106" s="2">
         <v>43616</v>
       </c>
@@ -2238,33 +2185,33 @@
         <v>108.7068634033203</v>
       </c>
       <c r="C106">
-        <v>93.080001831054688</v>
+        <v>93.08000183105469</v>
       </c>
       <c r="D106">
-        <v>85.650001525878906</v>
+        <v>85.65000152587891</v>
       </c>
       <c r="E106">
         <v>185.1600036621094</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5">
       <c r="A107" s="2">
         <v>43619</v>
       </c>
       <c r="B107">
-        <v>110.75018310546881</v>
+        <v>110.7501831054688</v>
       </c>
       <c r="C107">
         <v>91.30999755859375</v>
       </c>
       <c r="D107">
-        <v>87.980003356933594</v>
+        <v>87.98000335693359</v>
       </c>
       <c r="E107">
         <v>178.9700012207031</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5">
       <c r="A108" s="2">
         <v>43620</v>
       </c>
@@ -2272,16 +2219,16 @@
         <v>112.0010147094727</v>
       </c>
       <c r="C108">
-        <v>94.129997253417969</v>
+        <v>94.12999725341797</v>
       </c>
       <c r="D108">
-        <v>90.889999389648438</v>
+        <v>90.88999938964844</v>
       </c>
       <c r="E108">
         <v>193.6000061035156</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5">
       <c r="A109" s="2">
         <v>43621</v>
       </c>
@@ -2298,7 +2245,7 @@
         <v>196.5899963378906</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5">
       <c r="A110" s="2">
         <v>43622</v>
       </c>
@@ -2306,16 +2253,16 @@
         <v>115.2283172607422</v>
       </c>
       <c r="C110">
-        <v>96.389999389648438</v>
+        <v>96.38999938964844</v>
       </c>
       <c r="D110">
         <v>88</v>
       </c>
       <c r="E110">
-        <v>205.94999694824219</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+        <v>205.9499969482422</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
       <c r="A111" s="2">
         <v>43623</v>
       </c>
@@ -2323,16 +2270,16 @@
         <v>115.9921798706055</v>
       </c>
       <c r="C111">
-        <v>96.989997863769531</v>
+        <v>96.98999786376953</v>
       </c>
       <c r="D111">
-        <v>89.290000915527344</v>
+        <v>89.29000091552734</v>
       </c>
       <c r="E111">
         <v>204.5</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5">
       <c r="A112" s="2">
         <v>43626</v>
       </c>
@@ -2340,7 +2287,7 @@
         <v>116.7655868530273</v>
       </c>
       <c r="C112">
-        <v>95.510002136230469</v>
+        <v>95.51000213623047</v>
       </c>
       <c r="D112">
         <v>89.44000244140625</v>
@@ -2349,24 +2296,24 @@
         <v>212.8800048828125</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5">
       <c r="A113" s="2">
         <v>43627</v>
       </c>
       <c r="B113">
-        <v>115.69618225097661</v>
+        <v>115.6961822509766</v>
       </c>
       <c r="C113">
-        <v>94.580001831054688</v>
+        <v>94.58000183105469</v>
       </c>
       <c r="D113">
-        <v>91.349998474121094</v>
+        <v>91.34999847412109</v>
       </c>
       <c r="E113">
         <v>217.1000061035156</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5">
       <c r="A114" s="2">
         <v>43628</v>
       </c>
@@ -2374,24 +2321,24 @@
         <v>114.7604522705078</v>
       </c>
       <c r="C114">
-        <v>92.669998168945312</v>
+        <v>92.66999816894531</v>
       </c>
       <c r="D114">
-        <v>89.599998474121094</v>
+        <v>89.59999847412109</v>
       </c>
       <c r="E114">
-        <v>209.25999450683591</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+        <v>209.2599945068359</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
       <c r="A115" s="2">
         <v>43629</v>
       </c>
       <c r="B115">
-        <v>115.44793701171881</v>
+        <v>115.4479370117188</v>
       </c>
       <c r="C115">
-        <v>93.569999694824219</v>
+        <v>93.56999969482422</v>
       </c>
       <c r="D115">
         <v>90.19000244140625</v>
@@ -2400,7 +2347,7 @@
         <v>213.9100036621094</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5">
       <c r="A116" s="2">
         <v>43630</v>
       </c>
@@ -2408,16 +2355,16 @@
         <v>115.3524475097656</v>
       </c>
       <c r="C116">
-        <v>92.730003356933594</v>
+        <v>92.73000335693359</v>
       </c>
       <c r="D116">
-        <v>90.760002136230469</v>
+        <v>90.76000213623047</v>
       </c>
       <c r="E116">
-        <v>214.91999816894531</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+        <v>214.9199981689453</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
       <c r="A117" s="2">
         <v>43633</v>
       </c>
@@ -2428,13 +2375,13 @@
         <v>92.44000244140625</v>
       </c>
       <c r="D117">
-        <v>89.169998168945312</v>
+        <v>89.16999816894531</v>
       </c>
       <c r="E117">
         <v>225.0299987792969</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5">
       <c r="A118" s="2">
         <v>43634</v>
       </c>
@@ -2442,33 +2389,33 @@
         <v>117.3766708374023</v>
       </c>
       <c r="C118">
-        <v>92.029998779296875</v>
+        <v>92.02999877929688</v>
       </c>
       <c r="D118">
-        <v>91.589996337890625</v>
+        <v>91.58999633789062</v>
       </c>
       <c r="E118">
-        <v>224.74000549316409</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+        <v>224.7400054931641</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
       <c r="A119" s="2">
         <v>43635</v>
       </c>
       <c r="B119">
-        <v>117.33848571777339</v>
+        <v>117.3384857177734</v>
       </c>
       <c r="C119">
-        <v>92.580001831054688</v>
+        <v>92.58000183105469</v>
       </c>
       <c r="D119">
-        <v>93.410003662109375</v>
+        <v>93.41000366210938</v>
       </c>
       <c r="E119">
-        <v>226.42999267578119</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+        <v>226.4299926757812</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
       <c r="A120" s="2">
         <v>43636</v>
       </c>
@@ -2479,13 +2426,13 @@
         <v>93.19000244140625</v>
       </c>
       <c r="D120">
-        <v>93.480003356933594</v>
+        <v>93.48000335693359</v>
       </c>
       <c r="E120">
         <v>219.6199951171875</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5">
       <c r="A121" s="2">
         <v>43637</v>
       </c>
@@ -2493,33 +2440,33 @@
         <v>119.2863311767578</v>
       </c>
       <c r="C121">
-        <v>95.330001831054688</v>
+        <v>95.33000183105469</v>
       </c>
       <c r="D121">
-        <v>94.599998474121094</v>
+        <v>94.59999847412109</v>
       </c>
       <c r="E121">
-        <v>221.86000061035159</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+        <v>221.8600006103516</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
       <c r="A122" s="2">
         <v>43640</v>
       </c>
       <c r="B122">
-        <v>119.26722717285161</v>
+        <v>119.2672271728516</v>
       </c>
       <c r="C122">
         <v>99</v>
       </c>
       <c r="D122">
-        <v>93.669998168945312</v>
+        <v>93.66999816894531</v>
       </c>
       <c r="E122">
-        <v>223.63999938964841</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+        <v>223.6399993896484</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
       <c r="A123" s="2">
         <v>43641</v>
       </c>
@@ -2527,16 +2474,16 @@
         <v>118.0546035766602</v>
       </c>
       <c r="C123">
-        <v>96.900001525878906</v>
+        <v>96.90000152587891</v>
       </c>
       <c r="D123">
-        <v>91.349998474121094</v>
+        <v>91.34999847412109</v>
       </c>
       <c r="E123">
-        <v>219.75999450683591</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+        <v>219.7599945068359</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
       <c r="A124" s="2">
         <v>43642</v>
       </c>
@@ -2544,16 +2491,16 @@
         <v>118.3315048217773</v>
       </c>
       <c r="C124">
-        <v>97.319999694824219</v>
+        <v>97.31999969482422</v>
       </c>
       <c r="D124">
-        <v>95.620002746582031</v>
+        <v>95.62000274658203</v>
       </c>
       <c r="E124">
-        <v>219.27000427246091</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+        <v>219.2700042724609</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
       <c r="A125" s="2">
         <v>43643</v>
       </c>
@@ -2561,7 +2508,7 @@
         <v>117.5485458374023</v>
       </c>
       <c r="C125">
-        <v>99.139999389648438</v>
+        <v>99.13999938964844</v>
       </c>
       <c r="D125">
         <v>95.75</v>
@@ -2570,7 +2517,7 @@
         <v>222.8399963378906</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5">
       <c r="A126" s="2">
         <v>43644</v>
       </c>
@@ -2581,13 +2528,13 @@
         <v>101.2600021362305</v>
       </c>
       <c r="D126">
-        <v>96.580001831054688</v>
+        <v>96.58000183105469</v>
       </c>
       <c r="E126">
-        <v>223.46000671386719</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+        <v>223.4600067138672</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
       <c r="A127" s="2">
         <v>43647</v>
       </c>
@@ -2595,16 +2542,16 @@
         <v>119.2003936767578</v>
       </c>
       <c r="C127">
-        <v>100.88999938964839</v>
+        <v>100.8899993896484</v>
       </c>
       <c r="D127">
-        <v>98.419998168945312</v>
+        <v>98.41999816894531</v>
       </c>
       <c r="E127">
-        <v>227.16999816894531</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+        <v>227.1699981689453</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
       <c r="A128" s="2">
         <v>43648</v>
       </c>
@@ -2615,13 +2562,13 @@
         <v>102.7200012207031</v>
       </c>
       <c r="D128">
-        <v>97.919998168945312</v>
+        <v>97.91999816894531</v>
       </c>
       <c r="E128">
-        <v>224.55000305175781</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+        <v>224.5500030517578</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
       <c r="A129" s="2">
         <v>43649</v>
       </c>
@@ -2629,33 +2576,33 @@
         <v>117.777702331543</v>
       </c>
       <c r="C129">
-        <v>98.110000610351562</v>
+        <v>98.11000061035156</v>
       </c>
       <c r="D129">
-        <v>97.080001831054688</v>
+        <v>97.08000183105469</v>
       </c>
       <c r="E129">
         <v>234.8999938964844</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5">
       <c r="A130" s="2">
         <v>43651</v>
       </c>
       <c r="B130">
-        <v>117.95912170410161</v>
+        <v>117.9591217041016</v>
       </c>
       <c r="C130">
-        <v>93.599998474121094</v>
+        <v>93.59999847412109</v>
       </c>
       <c r="D130">
-        <v>95.879997253417969</v>
+        <v>95.87999725341797</v>
       </c>
       <c r="E130">
         <v>233.1000061035156</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5">
       <c r="A131" s="2">
         <v>43654</v>
       </c>
@@ -2666,13 +2613,13 @@
         <v>93.44000244140625</v>
       </c>
       <c r="D131">
-        <v>90.989997863769531</v>
+        <v>90.98999786376953</v>
       </c>
       <c r="E131">
         <v>230.3399963378906</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5">
       <c r="A132" s="2">
         <v>43655</v>
       </c>
@@ -2680,33 +2627,33 @@
         <v>117.777702331543</v>
       </c>
       <c r="C132">
-        <v>92.050003051757812</v>
+        <v>92.05000305175781</v>
       </c>
       <c r="D132">
-        <v>93.300003051757812</v>
+        <v>93.30000305175781</v>
       </c>
       <c r="E132">
-        <v>230.05999755859381</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+        <v>230.0599975585938</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
       <c r="A133" s="2">
         <v>43656</v>
       </c>
       <c r="B133">
-        <v>119.77330017089839</v>
+        <v>119.7733001708984</v>
       </c>
       <c r="C133">
-        <v>93.959999084472656</v>
+        <v>93.95999908447266</v>
       </c>
       <c r="D133">
-        <v>90.529998779296875</v>
+        <v>90.52999877929688</v>
       </c>
       <c r="E133">
-        <v>238.91999816894531</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+        <v>238.9199981689453</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
       <c r="A134" s="2">
         <v>43657</v>
       </c>
@@ -2714,16 +2661,16 @@
         <v>119.7637481689453</v>
       </c>
       <c r="C134">
-        <v>93.489997863769531</v>
+        <v>93.48999786376953</v>
       </c>
       <c r="D134">
-        <v>92.029998779296875</v>
+        <v>92.02999877929688</v>
       </c>
       <c r="E134">
         <v>238.6000061035156</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5">
       <c r="A135" s="2">
         <v>43658</v>
       </c>
@@ -2731,16 +2678,16 @@
         <v>120.2889022827148</v>
       </c>
       <c r="C135">
-        <v>92.819999694824219</v>
+        <v>92.81999969482422</v>
       </c>
       <c r="D135">
-        <v>92.819999694824219</v>
+        <v>92.81999969482422</v>
       </c>
       <c r="E135">
-        <v>245.08000183105469</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+        <v>245.0800018310547</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
       <c r="A136" s="2">
         <v>43661</v>
       </c>
@@ -2748,33 +2695,33 @@
         <v>120.040641784668</v>
       </c>
       <c r="C136">
-        <v>92.220001220703125</v>
+        <v>92.22000122070312</v>
       </c>
       <c r="D136">
-        <v>94.879997253417969</v>
+        <v>94.87999725341797</v>
       </c>
       <c r="E136">
         <v>253.5</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5">
       <c r="A137" s="2">
         <v>43662</v>
       </c>
       <c r="B137">
-        <v>119.12400817871089</v>
+        <v>119.1240081787109</v>
       </c>
       <c r="C137">
-        <v>89.550003051757812</v>
+        <v>89.55000305175781</v>
       </c>
       <c r="D137">
-        <v>96.410003662109375</v>
+        <v>96.41000366210938</v>
       </c>
       <c r="E137">
         <v>252.3800048828125</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5">
       <c r="A138" s="2">
         <v>43663</v>
       </c>
@@ -2782,33 +2729,33 @@
         <v>118.5320205688477</v>
       </c>
       <c r="C138">
-        <v>89.699996948242188</v>
+        <v>89.69999694824219</v>
       </c>
       <c r="D138">
-        <v>95.870002746582031</v>
+        <v>95.87000274658203</v>
       </c>
       <c r="E138">
-        <v>254.86000061035159</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+        <v>254.8600006103516</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
       <c r="A139" s="2">
         <v>43664</v>
       </c>
       <c r="B139">
-        <v>119.04762268066411</v>
+        <v>119.0476226806641</v>
       </c>
       <c r="C139">
         <v>89.19000244140625</v>
       </c>
       <c r="D139">
-        <v>96.739997863769531</v>
+        <v>96.73999786376953</v>
       </c>
       <c r="E139">
-        <v>253.53999328613281</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+        <v>253.5399932861328</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
       <c r="A140" s="2">
         <v>43665</v>
       </c>
@@ -2822,44 +2769,44 @@
         <v>97</v>
       </c>
       <c r="E140">
-        <v>258.17999267578119</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+        <v>258.1799926757812</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
       <c r="A141" s="2">
         <v>43668</v>
       </c>
       <c r="B141">
-        <v>119.64915466308589</v>
+        <v>119.6491546630859</v>
       </c>
       <c r="C141">
-        <v>88.139999389648438</v>
+        <v>88.13999938964844</v>
       </c>
       <c r="D141">
-        <v>98.290000915527344</v>
+        <v>98.29000091552734</v>
       </c>
       <c r="E141">
-        <v>255.67999267578119</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+        <v>255.6799926757812</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
       <c r="A142" s="2">
         <v>43669</v>
       </c>
       <c r="B142">
-        <v>120.13612365722661</v>
+        <v>120.1361236572266</v>
       </c>
       <c r="C142">
-        <v>88.220001220703125</v>
+        <v>88.22000122070312</v>
       </c>
       <c r="D142">
         <v>107.3199996948242</v>
       </c>
       <c r="E142">
-        <v>260.17001342773438</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+        <v>260.1700134277344</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
       <c r="A143" s="2">
         <v>43670</v>
       </c>
@@ -2867,16 +2814,16 @@
         <v>120.8236083984375</v>
       </c>
       <c r="C143">
-        <v>89.779998779296875</v>
+        <v>89.77999877929688</v>
       </c>
       <c r="D143">
-        <v>107.13999938964839</v>
+        <v>107.1399993896484</v>
       </c>
       <c r="E143">
         <v>264.8800048828125</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5">
       <c r="A144" s="2">
         <v>43671</v>
       </c>
@@ -2884,33 +2831,33 @@
         <v>119.954704284668</v>
       </c>
       <c r="C144">
-        <v>89.160003662109375</v>
+        <v>89.16000366210938</v>
       </c>
       <c r="D144">
         <v>107.9300003051758</v>
       </c>
       <c r="E144">
-        <v>228.82000732421881</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+        <v>228.8200073242188</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
       <c r="A145" s="2">
         <v>43672</v>
       </c>
       <c r="B145">
-        <v>118.13099670410161</v>
+        <v>118.1309967041016</v>
       </c>
       <c r="C145">
-        <v>89.510002136230469</v>
+        <v>89.51000213623047</v>
       </c>
       <c r="D145">
         <v>105</v>
       </c>
       <c r="E145">
-        <v>228.03999328613281</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+        <v>228.0399932861328</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
       <c r="A146" s="2">
         <v>43675</v>
       </c>
@@ -2918,16 +2865,16 @@
         <v>118.6179580688477</v>
       </c>
       <c r="C146">
-        <v>88.870002746582031</v>
+        <v>88.87000274658203</v>
       </c>
       <c r="D146">
         <v>105</v>
       </c>
       <c r="E146">
-        <v>235.77000427246091</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+        <v>235.7700042724609</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
       <c r="A147" s="2">
         <v>43676</v>
       </c>
@@ -2935,16 +2882,16 @@
         <v>118.7229843139648</v>
       </c>
       <c r="C147">
-        <v>88.569999694824219</v>
+        <v>88.56999969482422</v>
       </c>
       <c r="D147">
-        <v>104.94000244140619</v>
+        <v>104.9400024414062</v>
       </c>
       <c r="E147">
-        <v>242.25999450683591</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+        <v>242.2599945068359</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
       <c r="A148" s="2">
         <v>43677</v>
       </c>
@@ -2955,13 +2902,13 @@
         <v>92.5</v>
       </c>
       <c r="D148">
-        <v>104.30999755859381</v>
+        <v>104.3099975585938</v>
       </c>
       <c r="E148">
-        <v>241.61000061035159</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+        <v>241.6100006103516</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
       <c r="A149" s="2">
         <v>43678</v>
       </c>
@@ -2969,24 +2916,24 @@
         <v>115.2856140136719</v>
       </c>
       <c r="C149">
-        <v>94.599998474121094</v>
+        <v>94.59999847412109</v>
       </c>
       <c r="D149">
-        <v>103.84999847412109</v>
+        <v>103.8499984741211</v>
       </c>
       <c r="E149">
         <v>233.8500061035156</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5">
       <c r="A150" s="2">
         <v>43679</v>
       </c>
       <c r="B150">
-        <v>115.27606201171881</v>
+        <v>115.2760620117188</v>
       </c>
       <c r="C150">
-        <v>92.889999389648438</v>
+        <v>92.88999938964844</v>
       </c>
       <c r="D150">
         <v>103.1699981689453</v>
@@ -2995,32 +2942,32 @@
         <v>234.3399963378906</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5">
       <c r="A151" s="2">
         <v>43682</v>
       </c>
       <c r="B151">
-        <v>113.37596130371089</v>
+        <v>113.3759613037109</v>
       </c>
       <c r="C151">
-        <v>88.589996337890625</v>
+        <v>88.58999633789062</v>
       </c>
       <c r="D151">
-        <v>99.029998779296875</v>
+        <v>99.02999877929688</v>
       </c>
       <c r="E151">
-        <v>228.32000732421881</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+        <v>228.3200073242188</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
       <c r="A152" s="2">
         <v>43683</v>
       </c>
       <c r="B152">
-        <v>113.98704528808589</v>
+        <v>113.9870452880859</v>
       </c>
       <c r="C152">
-        <v>90.099998474121094</v>
+        <v>90.09999847412109</v>
       </c>
       <c r="D152">
         <v>100.4700012207031</v>
@@ -3029,7 +2976,7 @@
         <v>230.75</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5">
       <c r="A153" s="2">
         <v>43684</v>
       </c>
@@ -3037,16 +2984,16 @@
         <v>113.7196960449219</v>
       </c>
       <c r="C153">
-        <v>92.269996643066406</v>
+        <v>92.26999664306641</v>
       </c>
       <c r="D153">
-        <v>102.09999847412109</v>
+        <v>102.0999984741211</v>
       </c>
       <c r="E153">
-        <v>233.41999816894531</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+        <v>233.4199981689453</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
       <c r="A154" s="2">
         <v>43685</v>
       </c>
@@ -3054,16 +3001,16 @@
         <v>117.6631317138672</v>
       </c>
       <c r="C154">
-        <v>95.230003356933594</v>
+        <v>95.23000335693359</v>
       </c>
       <c r="D154">
         <v>104.2200012207031</v>
       </c>
       <c r="E154">
-        <v>238.30000305175781</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+        <v>238.3000030517578</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
       <c r="A155" s="2">
         <v>43686</v>
       </c>
@@ -3071,16 +3018,16 @@
         <v>116.8897171020508</v>
       </c>
       <c r="C155">
-        <v>91.970001220703125</v>
+        <v>91.97000122070312</v>
       </c>
       <c r="D155">
         <v>103.8399963378906</v>
       </c>
       <c r="E155">
-        <v>235.00999450683591</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+        <v>235.0099945068359</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
       <c r="A156" s="2">
         <v>43689</v>
       </c>
@@ -3088,24 +3035,24 @@
         <v>116.0590286254883</v>
       </c>
       <c r="C156">
-        <v>91.769996643066406</v>
+        <v>91.76999664306641</v>
       </c>
       <c r="D156">
         <v>102.4199981689453</v>
       </c>
       <c r="E156">
-        <v>229.00999450683591</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+        <v>229.0099945068359</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
       <c r="A157" s="2">
         <v>43690</v>
       </c>
       <c r="B157">
-        <v>116.86106872558589</v>
+        <v>116.8610687255859</v>
       </c>
       <c r="C157">
-        <v>92.339996337890625</v>
+        <v>92.33999633789062</v>
       </c>
       <c r="D157">
         <v>105.6600036621094</v>
@@ -3114,15 +3061,15 @@
         <v>235</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5">
       <c r="A158" s="2">
         <v>43691</v>
       </c>
       <c r="B158">
-        <v>112.42112731933589</v>
+        <v>112.4211273193359</v>
       </c>
       <c r="C158">
-        <v>88.099998474121094</v>
+        <v>88.09999847412109</v>
       </c>
       <c r="D158">
         <v>101.6699981689453</v>
@@ -3131,7 +3078,7 @@
         <v>219.6199951171875</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5">
       <c r="A159" s="2">
         <v>43692</v>
       </c>
@@ -3139,16 +3086,16 @@
         <v>111.6668243408203</v>
       </c>
       <c r="C159">
-        <v>87.879997253417969</v>
+        <v>87.87999725341797</v>
       </c>
       <c r="D159">
         <v>103</v>
       </c>
       <c r="E159">
-        <v>215.63999938964841</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+        <v>215.6399993896484</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
       <c r="A160" s="2">
         <v>43693</v>
       </c>
@@ -3159,13 +3106,13 @@
         <v>89.55999755859375</v>
       </c>
       <c r="D160">
-        <v>104.59999847412109</v>
+        <v>104.5999984741211</v>
       </c>
       <c r="E160">
-        <v>219.94000244140619</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+        <v>219.9400024414062</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
       <c r="A161" s="2">
         <v>43696</v>
       </c>
@@ -3173,16 +3120,16 @@
         <v>113.1620178222656</v>
       </c>
       <c r="C161">
-        <v>90.910003662109375</v>
+        <v>90.91000366210938</v>
       </c>
       <c r="D161">
         <v>105.25</v>
       </c>
       <c r="E161">
-        <v>226.83000183105469</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+        <v>226.8300018310547</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
       <c r="A162" s="2">
         <v>43697</v>
       </c>
@@ -3190,33 +3137,33 @@
         <v>112.0237350463867</v>
       </c>
       <c r="C162">
-        <v>92.699996948242188</v>
+        <v>92.69999694824219</v>
       </c>
       <c r="D162">
         <v>107</v>
       </c>
       <c r="E162">
-        <v>225.86000061035159</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+        <v>225.8600006103516</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
       <c r="A163" s="2">
         <v>43698</v>
       </c>
       <c r="B163">
-        <v>113.71185302734381</v>
+        <v>113.7118530273438</v>
       </c>
       <c r="C163">
-        <v>94.040000915527344</v>
+        <v>94.04000091552734</v>
       </c>
       <c r="D163">
         <v>108.0400009155273</v>
       </c>
       <c r="E163">
-        <v>220.83000183105469</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+        <v>220.8300018310547</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
       <c r="A164" s="2">
         <v>43699</v>
       </c>
@@ -3224,7 +3171,7 @@
         <v>113.5671768188477</v>
       </c>
       <c r="C164">
-        <v>94.620002746582031</v>
+        <v>94.62000274658203</v>
       </c>
       <c r="D164">
         <v>106.6600036621094</v>
@@ -3233,7 +3180,7 @@
         <v>222.1499938964844</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5">
       <c r="A165" s="2">
         <v>43700</v>
       </c>
@@ -3241,24 +3188,24 @@
         <v>111.1073303222656</v>
       </c>
       <c r="C165">
-        <v>92.910003662109375</v>
+        <v>92.91000366210938</v>
       </c>
       <c r="D165">
-        <v>104.94000244140619</v>
+        <v>104.9400024414062</v>
       </c>
       <c r="E165">
         <v>211.3999938964844</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5">
       <c r="A166" s="2">
         <v>43703</v>
       </c>
       <c r="B166">
-        <v>111.64752197265619</v>
+        <v>111.6475219726562</v>
       </c>
       <c r="C166">
-        <v>94.379997253417969</v>
+        <v>94.37999725341797</v>
       </c>
       <c r="D166">
         <v>106.4300003051758</v>
@@ -3267,12 +3214,12 @@
         <v>215</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5">
       <c r="A167" s="2">
         <v>43704</v>
       </c>
       <c r="B167">
-        <v>111.73435211181641</v>
+        <v>111.7343521118164</v>
       </c>
       <c r="C167">
         <v>94.05999755859375</v>
@@ -3281,27 +3228,27 @@
         <v>108.4199981689453</v>
       </c>
       <c r="E167">
-        <v>214.08000183105469</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+        <v>214.0800018310547</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
       <c r="A168" s="2">
         <v>43705</v>
       </c>
       <c r="B168">
-        <v>112.69898986816411</v>
+        <v>112.6989898681641</v>
       </c>
       <c r="C168">
-        <v>92.400001525878906</v>
+        <v>92.40000152587891</v>
       </c>
       <c r="D168">
-        <v>111.05999755859381</v>
+        <v>111.0599975585938</v>
       </c>
       <c r="E168">
         <v>215.5899963378906</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5">
       <c r="A169" s="2">
         <v>43706</v>
       </c>
@@ -3309,33 +3256,33 @@
         <v>113.3645858764648</v>
       </c>
       <c r="C169">
-        <v>93.029998779296875</v>
+        <v>93.02999877929688</v>
       </c>
       <c r="D169">
         <v>113.4899978637695</v>
       </c>
       <c r="E169">
-        <v>221.71000671386719</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+        <v>221.7100067138672</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
       <c r="A170" s="2">
         <v>43707</v>
       </c>
       <c r="B170">
-        <v>113.55751800537109</v>
+        <v>113.5575180053711</v>
       </c>
       <c r="C170">
-        <v>93.680000305175781</v>
+        <v>93.68000030517578</v>
       </c>
       <c r="D170">
-        <v>113.40000152587891</v>
+        <v>113.4000015258789</v>
       </c>
       <c r="E170">
-        <v>225.61000061035159</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+        <v>225.6100006103516</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
       <c r="A171" s="2">
         <v>43711</v>
       </c>
@@ -3343,33 +3290,33 @@
         <v>112.1587829589844</v>
       </c>
       <c r="C171">
-        <v>94.830001831054688</v>
+        <v>94.83000183105469</v>
       </c>
       <c r="D171">
         <v>109</v>
       </c>
       <c r="E171">
-        <v>225.00999450683591</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+        <v>225.0099945068359</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
       <c r="A172" s="2">
         <v>43712</v>
       </c>
       <c r="B172">
-        <v>113.10414123535161</v>
+        <v>113.1041412353516</v>
       </c>
       <c r="C172">
-        <v>97.949996948242188</v>
+        <v>97.94999694824219</v>
       </c>
       <c r="D172">
         <v>108.8399963378906</v>
       </c>
       <c r="E172">
-        <v>220.67999267578119</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+        <v>220.6799926757812</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
       <c r="A173" s="2">
         <v>43713</v>
       </c>
@@ -3377,33 +3324,33 @@
         <v>113.480354309082</v>
       </c>
       <c r="C173">
-        <v>97.449996948242188</v>
+        <v>97.44999694824219</v>
       </c>
       <c r="D173">
-        <v>112.76999664306641</v>
+        <v>112.7699966430664</v>
       </c>
       <c r="E173">
-        <v>229.58000183105469</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+        <v>229.5800018310547</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
       <c r="A174" s="2">
         <v>43714</v>
       </c>
       <c r="B174">
-        <v>114.07843017578119</v>
+        <v>114.0784301757812</v>
       </c>
       <c r="C174">
-        <v>98.529998779296875</v>
+        <v>98.52999877929688</v>
       </c>
       <c r="D174">
         <v>113.1999969482422</v>
       </c>
       <c r="E174">
-        <v>227.44999694824219</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+        <v>227.4499969482422</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
       <c r="A175" s="2">
         <v>43717</v>
       </c>
@@ -3411,58 +3358,58 @@
         <v>115.1684646606445</v>
       </c>
       <c r="C175">
-        <v>98.680000305175781</v>
+        <v>98.68000030517578</v>
       </c>
       <c r="D175">
         <v>112</v>
       </c>
       <c r="E175">
-        <v>231.78999328613281</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+        <v>231.7899932861328</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
       <c r="A176" s="2">
         <v>43718</v>
       </c>
       <c r="B176">
-        <v>117.54148864746089</v>
+        <v>117.5414886474609</v>
       </c>
       <c r="C176">
         <v>99.5</v>
       </c>
       <c r="D176">
-        <v>105.94000244140619</v>
+        <v>105.9400024414062</v>
       </c>
       <c r="E176">
-        <v>235.53999328613281</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+        <v>235.5399932861328</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
       <c r="A177" s="2">
         <v>43719</v>
       </c>
       <c r="B177">
-        <v>116.99163818359381</v>
+        <v>116.9916381835938</v>
       </c>
       <c r="C177">
-        <v>99.110000610351562</v>
+        <v>99.11000061035156</v>
       </c>
       <c r="D177">
-        <v>106.30999755859381</v>
+        <v>106.3099975585938</v>
       </c>
       <c r="E177">
         <v>247.1000061035156</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5">
       <c r="A178" s="2">
         <v>43720</v>
       </c>
       <c r="B178">
-        <v>117.12668609619141</v>
+        <v>117.1266860961914</v>
       </c>
       <c r="C178">
-        <v>98.339996337890625</v>
+        <v>98.33999633789062</v>
       </c>
       <c r="D178">
         <v>108.870002746582</v>
@@ -3471,7 +3418,7 @@
         <v>245.8699951171875</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5">
       <c r="A179" s="2">
         <v>43721</v>
       </c>
@@ -3479,33 +3426,33 @@
         <v>117.2038650512695</v>
       </c>
       <c r="C179">
-        <v>98.480003356933594</v>
+        <v>98.48000335693359</v>
       </c>
       <c r="D179">
         <v>110.4599990844727</v>
       </c>
       <c r="E179">
-        <v>245.19999694824219</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+        <v>245.1999969482422</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
       <c r="A180" s="2">
         <v>43724</v>
       </c>
       <c r="B180">
-        <v>119.73122406005859</v>
+        <v>119.7312240600586</v>
       </c>
       <c r="C180">
-        <v>99.120002746582031</v>
+        <v>99.12000274658203</v>
       </c>
       <c r="D180">
-        <v>110.11000061035161</v>
+        <v>110.1100006103516</v>
       </c>
       <c r="E180">
-        <v>242.80999755859381</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+        <v>242.8099975585938</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
       <c r="A181" s="2">
         <v>43725</v>
       </c>
@@ -3513,16 +3460,16 @@
         <v>119.5093536376953</v>
       </c>
       <c r="C181">
-        <v>98.419998168945312</v>
+        <v>98.41999816894531</v>
       </c>
       <c r="D181">
         <v>110.6999969482422</v>
       </c>
       <c r="E181">
-        <v>244.78999328613281</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+        <v>244.7899932861328</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
       <c r="A182" s="2">
         <v>43726</v>
       </c>
@@ -3530,33 +3477,33 @@
         <v>119.7890930175781</v>
       </c>
       <c r="C182">
-        <v>98.279998779296875</v>
+        <v>98.27999877929688</v>
       </c>
       <c r="D182">
         <v>110.879997253418</v>
       </c>
       <c r="E182">
-        <v>243.49000549316409</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+        <v>243.4900054931641</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
       <c r="A183" s="2">
         <v>43727</v>
       </c>
       <c r="B183">
-        <v>119.28749084472661</v>
+        <v>119.2874908447266</v>
       </c>
       <c r="C183">
         <v>99.69000244140625</v>
       </c>
       <c r="D183">
-        <v>113.11000061035161</v>
+        <v>113.1100006103516</v>
       </c>
       <c r="E183">
         <v>246.6000061035156</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5">
       <c r="A184" s="2">
         <v>43728</v>
       </c>
@@ -3564,16 +3511,16 @@
         <v>119.9241409301758</v>
       </c>
       <c r="C184">
-        <v>98.699996948242188</v>
+        <v>98.69999694824219</v>
       </c>
       <c r="D184">
-        <v>111.38999938964839</v>
+        <v>111.3899993896484</v>
       </c>
       <c r="E184">
         <v>240.6199951171875</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5">
       <c r="A185" s="2">
         <v>43731</v>
       </c>
@@ -3581,16 +3528,16 @@
         <v>120.483642578125</v>
       </c>
       <c r="C185">
-        <v>98.180000305175781</v>
+        <v>98.18000030517578</v>
       </c>
       <c r="D185">
         <v>113</v>
       </c>
       <c r="E185">
-        <v>241.22999572753909</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+        <v>241.2299957275391</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
       <c r="A186" s="2">
         <v>43732</v>
       </c>
@@ -3598,16 +3545,16 @@
         <v>119.3646545410156</v>
       </c>
       <c r="C186">
-        <v>97.360000610351562</v>
+        <v>97.36000061035156</v>
       </c>
       <c r="D186">
         <v>111.5500030517578</v>
       </c>
       <c r="E186">
-        <v>223.21000671386719</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+        <v>223.2100067138672</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
       <c r="A187" s="2">
         <v>43733</v>
       </c>
@@ -3615,16 +3562,16 @@
         <v>119.1427917480469</v>
       </c>
       <c r="C187">
-        <v>97.629997253417969</v>
+        <v>97.62999725341797</v>
       </c>
       <c r="D187">
         <v>112.0800018310547</v>
       </c>
       <c r="E187">
-        <v>228.69999694824219</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+        <v>228.6999969482422</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
       <c r="A188" s="2">
         <v>43734</v>
       </c>
@@ -3632,16 +3579,16 @@
         <v>115.911247253418</v>
       </c>
       <c r="C188">
-        <v>96.620002746582031</v>
+        <v>96.62000274658203</v>
       </c>
       <c r="D188">
         <v>113.6600036621094</v>
       </c>
       <c r="E188">
-        <v>242.55999755859381</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+        <v>242.5599975585938</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
       <c r="A189" s="2">
         <v>43735</v>
       </c>
@@ -3649,7 +3596,7 @@
         <v>114.4064025878906</v>
       </c>
       <c r="C189">
-        <v>95.669998168945312</v>
+        <v>95.66999816894531</v>
       </c>
       <c r="D189">
         <v>106.2099990844727</v>
@@ -3658,7 +3605,7 @@
         <v>242.1300048828125</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5">
       <c r="A190" s="2">
         <v>43738</v>
       </c>
@@ -3666,7 +3613,7 @@
         <v>114.4064025878906</v>
       </c>
       <c r="C190">
-        <v>97.819999694824219</v>
+        <v>97.81999969482422</v>
       </c>
       <c r="D190">
         <v>110.7600021362305</v>
@@ -3675,12 +3622,12 @@
         <v>240.8699951171875</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5">
       <c r="A191" s="2">
         <v>43739</v>
       </c>
       <c r="B191">
-        <v>111.90798187255859</v>
+        <v>111.9079818725586</v>
       </c>
       <c r="C191">
         <v>96.75</v>
@@ -3689,27 +3636,27 @@
         <v>111.2200012207031</v>
       </c>
       <c r="E191">
-        <v>244.69000244140619</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+        <v>244.6900024414062</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
       <c r="A192" s="2">
         <v>43740</v>
       </c>
       <c r="B192">
-        <v>108.31951904296881</v>
+        <v>108.3195190429688</v>
       </c>
       <c r="C192">
         <v>94.25</v>
       </c>
       <c r="D192">
-        <v>110.38999938964839</v>
+        <v>110.3899993896484</v>
       </c>
       <c r="E192">
         <v>243.1300048828125</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5">
       <c r="A193" s="2">
         <v>43741</v>
       </c>
@@ -3717,7 +3664,7 @@
         <v>109.1491165161133</v>
       </c>
       <c r="C193">
-        <v>94.339996337890625</v>
+        <v>94.33999633789062</v>
       </c>
       <c r="D193">
         <v>112.9100036621094</v>
@@ -3726,32 +3673,32 @@
         <v>233.0299987792969</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5">
       <c r="A194" s="2">
         <v>43742</v>
       </c>
       <c r="B194">
-        <v>109.82436370849609</v>
+        <v>109.8243637084961</v>
       </c>
       <c r="C194">
-        <v>95.610000610351562</v>
+        <v>95.61000061035156</v>
       </c>
       <c r="D194">
         <v>114.0699996948242</v>
       </c>
       <c r="E194">
-        <v>231.42999267578119</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+        <v>231.4299926757812</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
       <c r="A195" s="2">
         <v>43745</v>
       </c>
       <c r="B195">
-        <v>109.25522613525391</v>
+        <v>109.2552261352539</v>
       </c>
       <c r="C195">
-        <v>93.569999694824219</v>
+        <v>93.56999969482422</v>
       </c>
       <c r="D195">
         <v>114.25</v>
@@ -3760,32 +3707,32 @@
         <v>237.7200012207031</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5">
       <c r="A196" s="2">
         <v>43746</v>
       </c>
       <c r="B196">
-        <v>107.76002502441411</v>
+        <v>107.7600250244141</v>
       </c>
       <c r="C196">
-        <v>92.540000915527344</v>
+        <v>92.54000091552734</v>
       </c>
       <c r="D196">
         <v>109.5800018310547</v>
       </c>
       <c r="E196">
-        <v>240.05000305175781</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+        <v>240.0500030517578</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
       <c r="A197" s="2">
         <v>43747</v>
       </c>
       <c r="B197">
-        <v>109.13946533203119</v>
+        <v>109.1394653320312</v>
       </c>
       <c r="C197">
-        <v>92.879997253417969</v>
+        <v>92.87999725341797</v>
       </c>
       <c r="D197">
         <v>110.870002746582</v>
@@ -3794,29 +3741,29 @@
         <v>244.5299987792969</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5">
       <c r="A198" s="2">
         <v>43748</v>
       </c>
       <c r="B198">
-        <v>110.53818511962891</v>
+        <v>110.5381851196289</v>
       </c>
       <c r="C198">
-        <v>92.529998779296875</v>
+        <v>92.52999877929688</v>
       </c>
       <c r="D198">
-        <v>112.65000152587891</v>
+        <v>112.6500015258789</v>
       </c>
       <c r="E198">
-        <v>244.74000549316409</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+        <v>244.7400054931641</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
       <c r="A199" s="2">
         <v>43749</v>
       </c>
       <c r="B199">
-        <v>112.04302978515619</v>
+        <v>112.0430297851562</v>
       </c>
       <c r="C199">
         <v>94.19000244140625</v>
@@ -3825,10 +3772,10 @@
         <v>112.7200012207031</v>
       </c>
       <c r="E199">
-        <v>247.88999938964841</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+        <v>247.8899993896484</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
       <c r="A200" s="2">
         <v>43752</v>
       </c>
@@ -3836,24 +3783,24 @@
         <v>112.0719757080078</v>
       </c>
       <c r="C200">
-        <v>93.879997253417969</v>
+        <v>93.87999725341797</v>
       </c>
       <c r="D200">
         <v>112.879997253418</v>
       </c>
       <c r="E200">
-        <v>256.95999145507812</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+        <v>256.9599914550781</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
       <c r="A201" s="2">
         <v>43753</v>
       </c>
       <c r="B201">
-        <v>112.19737243652339</v>
+        <v>112.1973724365234</v>
       </c>
       <c r="C201">
-        <v>95.150001525878906</v>
+        <v>95.15000152587891</v>
       </c>
       <c r="D201">
         <v>116.2900009155273</v>
@@ -3862,15 +3809,15 @@
         <v>257.8900146484375</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5">
       <c r="A202" s="2">
         <v>43754</v>
       </c>
       <c r="B202">
-        <v>111.03981018066411</v>
+        <v>111.0398101806641</v>
       </c>
       <c r="C202">
-        <v>96.220001220703125</v>
+        <v>96.22000122070312</v>
       </c>
       <c r="D202">
         <v>113.7399978637695</v>
@@ -3879,7 +3826,7 @@
         <v>259.75</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5">
       <c r="A203" s="2">
         <v>43755</v>
       </c>
@@ -3887,16 +3834,16 @@
         <v>111.2713088989258</v>
       </c>
       <c r="C203">
-        <v>96.760002136230469</v>
+        <v>96.76000213623047</v>
       </c>
       <c r="D203">
-        <v>114.90000152587891</v>
+        <v>114.9000015258789</v>
       </c>
       <c r="E203">
-        <v>261.97000122070312</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+        <v>261.9700012207031</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
       <c r="A204" s="2">
         <v>43756</v>
       </c>
@@ -3904,16 +3851,16 @@
         <v>110.6828918457031</v>
       </c>
       <c r="C204">
-        <v>95.129997253417969</v>
+        <v>95.12999725341797</v>
       </c>
       <c r="D204">
         <v>113.8199996948242</v>
       </c>
       <c r="E204">
-        <v>256.95001220703119</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+        <v>256.9500122070312</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
       <c r="A205" s="2">
         <v>43759</v>
       </c>
@@ -3924,13 +3871,13 @@
         <v>95.80999755859375</v>
       </c>
       <c r="D205">
-        <v>116.55999755859381</v>
+        <v>116.5599975585938</v>
       </c>
       <c r="E205">
         <v>253.5</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5">
       <c r="A206" s="2">
         <v>43760</v>
       </c>
@@ -3938,50 +3885,50 @@
         <v>113.6346969604492</v>
       </c>
       <c r="C206">
-        <v>94.300003051757812</v>
+        <v>94.30000305175781</v>
       </c>
       <c r="D206">
         <v>108.379997253418</v>
       </c>
       <c r="E206">
-        <v>255.58000183105469</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+        <v>255.5800018310547</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
       <c r="A207" s="2">
         <v>43761</v>
       </c>
       <c r="B207">
-        <v>113.80833435058589</v>
+        <v>113.8083343505859</v>
       </c>
       <c r="C207">
-        <v>95.709999084472656</v>
+        <v>95.70999908447266</v>
       </c>
       <c r="D207">
         <v>112.4300003051758</v>
       </c>
       <c r="E207">
-        <v>254.67999267578119</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+        <v>254.6799926757812</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
       <c r="A208" s="2">
         <v>43762</v>
       </c>
       <c r="B208">
-        <v>113.42247009277339</v>
+        <v>113.4224700927734</v>
       </c>
       <c r="C208">
-        <v>95.980003356933594</v>
+        <v>95.98000335693359</v>
       </c>
       <c r="D208">
-        <v>120.23000335693359</v>
+        <v>120.2300033569336</v>
       </c>
       <c r="E208">
-        <v>299.67999267578119</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+        <v>299.6799926757812</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
       <c r="A209" s="2">
         <v>43763</v>
       </c>
@@ -3992,13 +3939,13 @@
         <v>96.30999755859375</v>
       </c>
       <c r="D209">
-        <v>120.90000152587891</v>
+        <v>120.9000015258789</v>
       </c>
       <c r="E209">
         <v>328.1300048828125</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5">
       <c r="A210" s="2">
         <v>43766</v>
       </c>
@@ -4006,33 +3953,33 @@
         <v>114.2906494140625</v>
       </c>
       <c r="C210">
-        <v>96.720001220703125</v>
+        <v>96.72000122070312</v>
       </c>
       <c r="D210">
         <v>121.3399963378906</v>
       </c>
       <c r="E210">
-        <v>327.70999145507812</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+        <v>327.7099914550781</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
       <c r="A211" s="2">
         <v>43767</v>
       </c>
       <c r="B211">
-        <v>113.95301818847661</v>
+        <v>113.9530181884766</v>
       </c>
       <c r="C211">
-        <v>94.410003662109375</v>
+        <v>94.41000366210938</v>
       </c>
       <c r="D211">
         <v>121</v>
       </c>
       <c r="E211">
-        <v>316.22000122070312</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+        <v>316.2200012207031</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
       <c r="A212" s="2">
         <v>43768</v>
       </c>
@@ -4040,33 +3987,33 @@
         <v>112.2456130981445</v>
       </c>
       <c r="C212">
-        <v>96.720001220703125</v>
+        <v>96.72000122070312</v>
       </c>
       <c r="D212">
-        <v>122.63999938964839</v>
+        <v>122.6399993896484</v>
       </c>
       <c r="E212">
         <v>315.010009765625</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5">
       <c r="A213" s="2">
         <v>43769</v>
       </c>
       <c r="B213">
-        <v>112.03338623046881</v>
+        <v>112.0333862304688</v>
       </c>
       <c r="C213">
-        <v>96.400001525878906</v>
+        <v>96.40000152587891</v>
       </c>
       <c r="D213">
-        <v>122.05999755859381</v>
+        <v>122.0599975585938</v>
       </c>
       <c r="E213">
-        <v>314.92001342773438</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+        <v>314.9200134277344</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
       <c r="A214" s="2">
         <v>43770</v>
       </c>
@@ -4074,16 +4021,16 @@
         <v>112.1009063720703</v>
       </c>
       <c r="C214">
-        <v>95.300003051757812</v>
+        <v>95.30000305175781</v>
       </c>
       <c r="D214">
         <v>119.620002746582</v>
       </c>
       <c r="E214">
-        <v>313.30999755859381</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+        <v>313.3099975585938</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
       <c r="A215" s="2">
         <v>43773</v>
       </c>
@@ -4091,16 +4038,16 @@
         <v>117.2713928222656</v>
       </c>
       <c r="C215">
-        <v>98.150001525878906</v>
+        <v>98.15000152587891</v>
       </c>
       <c r="D215">
         <v>121.9300003051758</v>
       </c>
       <c r="E215">
-        <v>317.47000122070312</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+        <v>317.4700012207031</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
       <c r="A216" s="2">
         <v>43774</v>
       </c>
@@ -4108,16 +4055,16 @@
         <v>117.628303527832</v>
       </c>
       <c r="C216">
-        <v>98.260002136230469</v>
+        <v>98.26000213623047</v>
       </c>
       <c r="D216">
-        <v>122.15000152587891</v>
+        <v>122.1500015258789</v>
       </c>
       <c r="E216">
-        <v>317.22000122070312</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+        <v>317.2200012207031</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
       <c r="A217" s="2">
         <v>43775</v>
       </c>
@@ -4125,16 +4072,16 @@
         <v>115.6604461669922</v>
       </c>
       <c r="C217">
-        <v>98.669998168945312</v>
+        <v>98.66999816894531</v>
       </c>
       <c r="D217">
         <v>120.9700012207031</v>
       </c>
       <c r="E217">
-        <v>326.57998657226562</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+        <v>326.5799865722656</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
       <c r="A218" s="2">
         <v>43776</v>
       </c>
@@ -4142,16 +4089,16 @@
         <v>117.5800704956055</v>
       </c>
       <c r="C218">
-        <v>97.230003356933594</v>
+        <v>97.23000335693359</v>
       </c>
       <c r="D218">
         <v>123.629997253418</v>
       </c>
       <c r="E218">
-        <v>335.54000854492188</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+        <v>335.5400085449219</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
       <c r="A219" s="2">
         <v>43777</v>
       </c>
@@ -4159,7 +4106,7 @@
         <v>116.6540222167969</v>
       </c>
       <c r="C219">
-        <v>98.269996643066406</v>
+        <v>98.26999664306641</v>
       </c>
       <c r="D219">
         <v>120.4300003051758</v>
@@ -4168,7 +4115,7 @@
         <v>337.1400146484375</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5">
       <c r="A220" s="2">
         <v>43780</v>
       </c>
@@ -4176,16 +4123,16 @@
         <v>116.5382614135742</v>
       </c>
       <c r="C220">
-        <v>96.389999389648438</v>
+        <v>96.38999938964844</v>
       </c>
       <c r="D220">
         <v>120.9300003051758</v>
       </c>
       <c r="E220">
-        <v>345.08999633789062</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+        <v>345.0899963378906</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
       <c r="A221" s="2">
         <v>43781</v>
       </c>
@@ -4193,50 +4140,50 @@
         <v>116.6829528808594</v>
       </c>
       <c r="C221">
-        <v>96.330001831054688</v>
+        <v>96.33000183105469</v>
       </c>
       <c r="D221">
         <v>119.6800003051758</v>
       </c>
       <c r="E221">
-        <v>349.92999267578119</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+        <v>349.9299926757812</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
       <c r="A222" s="2">
         <v>43782</v>
       </c>
       <c r="B222">
-        <v>117.95628356933589</v>
+        <v>117.9562835693359</v>
       </c>
       <c r="C222">
         <v>96</v>
       </c>
       <c r="D222">
-        <v>122.44000244140619</v>
+        <v>122.4400024414062</v>
       </c>
       <c r="E222">
         <v>346.1099853515625</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5">
       <c r="A223" s="2">
         <v>43783</v>
       </c>
       <c r="B223">
-        <v>117.64759826660161</v>
+        <v>117.6475982666016</v>
       </c>
       <c r="C223">
-        <v>97.540000915527344</v>
+        <v>97.54000091552734</v>
       </c>
       <c r="D223">
         <v>121.4899978637695</v>
       </c>
       <c r="E223">
-        <v>349.35000610351562</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+        <v>349.3500061035156</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
       <c r="A224" s="2">
         <v>43784</v>
       </c>
@@ -4244,16 +4191,16 @@
         <v>117.5209579467773</v>
       </c>
       <c r="C224">
-        <v>97.540000915527344</v>
+        <v>97.54000091552734</v>
       </c>
       <c r="D224">
         <v>121.4700012207031</v>
       </c>
       <c r="E224">
-        <v>352.17001342773438</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+        <v>352.1700134277344</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
       <c r="A225" s="2">
         <v>43787</v>
       </c>
@@ -4261,7 +4208,7 @@
         <v>115.484992980957</v>
       </c>
       <c r="C225">
-        <v>97.389999389648438</v>
+        <v>97.38999938964844</v>
       </c>
       <c r="D225">
         <v>122.0899963378906</v>
@@ -4270,7 +4217,7 @@
         <v>349.989990234375</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5">
       <c r="A226" s="2">
         <v>43788</v>
       </c>
@@ -4284,10 +4231,10 @@
         <v>121.9700012207031</v>
       </c>
       <c r="E226">
-        <v>359.51998901367188</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+        <v>359.5199890136719</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
       <c r="A227" s="2">
         <v>43789</v>
       </c>
@@ -4295,16 +4242,16 @@
         <v>114.306266784668</v>
       </c>
       <c r="C227">
-        <v>98.120002746582031</v>
+        <v>98.12000274658203</v>
       </c>
       <c r="D227">
-        <v>118.69000244140619</v>
+        <v>118.6900024414062</v>
       </c>
       <c r="E227">
-        <v>352.22000122070312</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+        <v>352.2200012207031</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
       <c r="A228" s="2">
         <v>43790</v>
       </c>
@@ -4312,16 +4259,16 @@
         <v>115.6993026733398</v>
       </c>
       <c r="C228">
-        <v>99.010002136230469</v>
+        <v>99.01000213623047</v>
       </c>
       <c r="D228">
         <v>118.2600021362305</v>
       </c>
       <c r="E228">
-        <v>354.82998657226562</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+        <v>354.8299865722656</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
       <c r="A229" s="2">
         <v>43791</v>
       </c>
@@ -4332,13 +4279,13 @@
         <v>99.19000244140625</v>
       </c>
       <c r="D229">
-        <v>119.13999938964839</v>
+        <v>119.1399993896484</v>
       </c>
       <c r="E229">
-        <v>333.04000854492188</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+        <v>333.0400085449219</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
       <c r="A230" s="2">
         <v>43794</v>
       </c>
@@ -4346,33 +4293,33 @@
         <v>115.3193817138672</v>
       </c>
       <c r="C230">
-        <v>99.800003051757812</v>
+        <v>99.80000305175781</v>
       </c>
       <c r="D230">
         <v>122.7200012207031</v>
       </c>
       <c r="E230">
-        <v>336.33999633789062</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+        <v>336.3399963378906</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
       <c r="A231" s="2">
         <v>43795</v>
       </c>
       <c r="B231">
-        <v>114.74464416503911</v>
+        <v>114.7446441650391</v>
       </c>
       <c r="C231">
-        <v>99.279998779296875</v>
+        <v>99.27999877929688</v>
       </c>
       <c r="D231">
-        <v>124.40000152587891</v>
+        <v>124.4000015258789</v>
       </c>
       <c r="E231">
-        <v>328.92001342773438</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+        <v>328.9200134277344</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
       <c r="A232" s="2">
         <v>43796</v>
       </c>
@@ -4386,15 +4333,15 @@
         <v>124.2600021362305</v>
       </c>
       <c r="E232">
-        <v>331.29000854492188</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+        <v>331.2900085449219</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
       <c r="A233" s="2">
         <v>43798</v>
       </c>
       <c r="B233">
-        <v>114.10169982910161</v>
+        <v>114.1016998291016</v>
       </c>
       <c r="C233">
         <v>101.0100021362305</v>
@@ -4403,10 +4350,10 @@
         <v>121.0800018310547</v>
       </c>
       <c r="E233">
-        <v>329.94000244140619</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+        <v>329.9400024414062</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
       <c r="A234" s="2">
         <v>43801</v>
       </c>
@@ -4414,7 +4361,7 @@
         <v>113.7802429199219</v>
       </c>
       <c r="C234">
-        <v>100.40000152587891</v>
+        <v>100.4000015258789</v>
       </c>
       <c r="D234">
         <v>122.25</v>
@@ -4423,7 +4370,7 @@
         <v>334.8699951171875</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5">
       <c r="A235" s="2">
         <v>43802</v>
       </c>
@@ -4431,16 +4378,16 @@
         <v>112.8937606811523</v>
       </c>
       <c r="C235">
-        <v>101.26999664306641</v>
+        <v>101.2699966430664</v>
       </c>
       <c r="D235">
         <v>120.0100021362305</v>
       </c>
       <c r="E235">
-        <v>336.20001220703119</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+        <v>336.2000122070312</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
       <c r="A236" s="2">
         <v>43803</v>
       </c>
@@ -4451,13 +4398,13 @@
         <v>100.629997253418</v>
       </c>
       <c r="D236">
-        <v>119.84999847412109</v>
+        <v>119.8499984741211</v>
       </c>
       <c r="E236">
-        <v>333.02999877929688</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+        <v>333.0299987792969</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
       <c r="A237" s="2">
         <v>43804</v>
       </c>
@@ -4474,7 +4421,7 @@
         <v>330.3699951171875</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5">
       <c r="A238" s="2">
         <v>43805</v>
       </c>
@@ -4482,7 +4429,7 @@
         <v>114.9589538574219</v>
       </c>
       <c r="C238">
-        <v>103.23000335693359</v>
+        <v>103.2300033569336</v>
       </c>
       <c r="D238">
         <v>120.7900009155273</v>
@@ -4491,24 +4438,24 @@
         <v>335.8900146484375</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5">
       <c r="A239" s="2">
         <v>43808</v>
       </c>
       <c r="B239">
-        <v>114.26731109619141</v>
+        <v>114.2673110961914</v>
       </c>
       <c r="C239">
         <v>102.0299987792969</v>
       </c>
       <c r="D239">
-        <v>120.94000244140619</v>
+        <v>120.9400024414062</v>
       </c>
       <c r="E239">
-        <v>339.52999877929688</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+        <v>339.5299987792969</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
       <c r="A240" s="2">
         <v>43809</v>
       </c>
@@ -4522,10 +4469,10 @@
         <v>120.4199981689453</v>
       </c>
       <c r="E240">
-        <v>348.83999633789062</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+        <v>348.8399963378906</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
       <c r="A241" s="2">
         <v>43810</v>
       </c>
@@ -4536,18 +4483,18 @@
         <v>103.1999969482422</v>
       </c>
       <c r="D241">
-        <v>121.73000335693359</v>
+        <v>121.7300033569336</v>
       </c>
       <c r="E241">
-        <v>352.70001220703119</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+        <v>352.7000122070312</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
       <c r="A242" s="2">
         <v>43811</v>
       </c>
       <c r="B242">
-        <v>115.73826599121089</v>
+        <v>115.7382659912109</v>
       </c>
       <c r="C242">
         <v>105.0899963378906</v>
@@ -4556,10 +4503,10 @@
         <v>122.3300018310547</v>
       </c>
       <c r="E242">
-        <v>359.67999267578119</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+        <v>359.6799926757812</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
       <c r="A243" s="2">
         <v>43812</v>
       </c>
@@ -4576,7 +4523,7 @@
         <v>358.3900146484375</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5">
       <c r="A244" s="2">
         <v>43815</v>
       </c>
@@ -4593,7 +4540,7 @@
         <v>381.5</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5">
       <c r="A245" s="2">
         <v>43816</v>
       </c>
@@ -4604,13 +4551,13 @@
         <v>105.75</v>
       </c>
       <c r="D245">
-        <v>125.05999755859381</v>
+        <v>125.0599975585938</v>
       </c>
       <c r="E245">
         <v>378.989990234375</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5">
       <c r="A246" s="2">
         <v>43817</v>
       </c>
@@ -4621,13 +4568,13 @@
         <v>107.0800018310547</v>
       </c>
       <c r="D246">
-        <v>127.51999664306641</v>
+        <v>127.5199966430664</v>
       </c>
       <c r="E246">
-        <v>393.14999389648438</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+        <v>393.1499938964844</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
       <c r="A247" s="2">
         <v>43818</v>
       </c>
@@ -4638,13 +4585,13 @@
         <v>107.3399963378906</v>
       </c>
       <c r="D247">
-        <v>122.98000335693359</v>
+        <v>122.9800033569336</v>
       </c>
       <c r="E247">
-        <v>404.04000854492188</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+        <v>404.0400085449219</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
       <c r="A248" s="2">
         <v>43819</v>
       </c>
@@ -4658,15 +4605,15 @@
         <v>123.7399978637695</v>
       </c>
       <c r="E248">
-        <v>405.58999633789062</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+        <v>405.5899963378906</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
       <c r="A249" s="2">
         <v>43822</v>
       </c>
       <c r="B249">
-        <v>117.21897125244141</v>
+        <v>117.2189712524414</v>
       </c>
       <c r="C249">
         <v>107.7900009155273</v>
@@ -4675,10 +4622,10 @@
         <v>124.9599990844727</v>
       </c>
       <c r="E249">
-        <v>419.22000122070312</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+        <v>419.2200012207031</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
       <c r="A250" s="2">
         <v>43823</v>
       </c>
@@ -4695,12 +4642,12 @@
         <v>425.25</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5">
       <c r="A251" s="2">
         <v>43825</v>
       </c>
       <c r="B251">
-        <v>117.48199462890619</v>
+        <v>117.4819946289062</v>
       </c>
       <c r="C251">
         <v>108.5100021362305</v>
@@ -4709,10 +4656,10 @@
         <v>125</v>
       </c>
       <c r="E251">
-        <v>430.94000244140619</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+        <v>430.9400024414062</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
       <c r="A252" s="2">
         <v>43826</v>
       </c>
@@ -4729,7 +4676,7 @@
         <v>430.3800048828125</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5">
       <c r="A253" s="2">
         <v>43829</v>
       </c>
@@ -4743,7 +4690,7 @@
         <v>123</v>
       </c>
       <c r="E253">
-        <v>414.70001220703119</v>
+        <v>414.7000122070312</v>
       </c>
     </row>
   </sheetData>
